--- a/data/Game/Quest.xlsx
+++ b/data/Game/Quest.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E15A8E-0547-484B-A2EB-47D9D79D25EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1304F79-DA8A-4560-9C0C-68F6AF8A4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$139</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="694">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>EA 23.188 Patch 2</t>
+    <t>EA 23.200 Patch 2</t>
   </si>
   <si>
     <t>Main Quest</t>
@@ -1005,10 +1005,46 @@
     <t>negotiation_darkness1</t>
   </si>
   <si>
-    <t>|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
-  </si>
-  <si>
-    <t>|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
+    <t>|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder.</t>
+  </si>
+  <si>
+    <t>|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけよう。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness2</t>
+  </si>
+  <si>
+    <t>|Bicerin, the elder of the exiles, entrusted you with the mission to return Duponne from the Sunken Temple of Lurie.</t>
+  </si>
+  <si>
+    <t>|ルーリエ海底神殿からデュポンヌを連れ帰るよう、追放者の長ビチェリンに依頼された。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness3</t>
+  </si>
+  <si>
+    <t>|You found Duponne, now grown into a dragon, deep within the Sunken Temple of Lurie. To bring her back seems beyond reach now, unless there is another way.</t>
+  </si>
+  <si>
+    <t>|ルーリエ海底神殿の最奥でドラゴンへと成長したデュポンヌを見つけた。このままでは連れ帰ることは難しそうだが、何か手があるだろうか？</t>
+  </si>
+  <si>
+    <t>negotiation_darkness4</t>
+  </si>
+  <si>
+    <t>|The mission given by Bicerin has been fulfilled. Time to return to the Village of Atonement and inform him.</t>
+  </si>
+  <si>
+    <t>|ビチェリンの依頼を達成した。贖罪の村に戻り、ビチェリンに報告しなければならない。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness5</t>
+  </si>
+  <si>
+    <t>|Let's wait for Kettle to come back. (Continued)</t>
+  </si>
+  <si>
+    <t>|ケトルの帰りを待とう。（続く）</t>
   </si>
   <si>
     <t>demitas_spellwriter</t>
@@ -1829,6 +1865,9 @@
     <t>EA 23.64</t>
   </si>
   <si>
+    <t>EA 23.188 Patch 2</t>
+  </si>
+  <si>
     <t>Alpha 12.1</t>
   </si>
   <si>
@@ -1928,25 +1967,25 @@
     <t>Bạn đã tìm thấy chiếc túi bí ẩn mà Nanasu hằng mong muốn. Hãy nói chuyện với cô ấy và trao nó cho cô.</t>
   </si>
   <si>
+    <t>Bạn được mời bởi Melilith, một cô gái bí ẩn sống trong căn biệt thự cũ, tham gia vào một cuộc săn kho báu. Bạn phải tiến sâu xuống tầng hầm của dinh thự để tìm ra kho báu ẩn giấu. Tuy nhiên, cô ấy đã cảnh báo rằng: “Chỉ được mang về duy nhất một kho báu.”</t>
+  </si>
+  <si>
     <t>Bạn đã lấy được “kho báu” trong tầng hầm sâu của căn biệt thự cũ. Giờ hãy quay lại mặt đất và báo cáo với Melilith.</t>
   </si>
   <si>
-    <t>Bạn được mời bởi Melilith, một cô gái bí ẩn sống trong căn biệt thự cũ, tham gia vào một cuộc săn kho báu. Bạn phải tiến sâu xuống tầng hầm của dinh thự để tìm ra kho báu ẩn giấu. Tuy nhiên, cô ấy đã cảnh báo rằng: “Chỉ được mang về duy nhất một kho báu.”</t>
+    <t>Có vẻ bạn vẫn còn hơi choáng. Hãy uống một ít hot crim để hồi phục mệt mỏi. Quả crimberry rất dễ tìm, thường được dùng làm nguyên liệu trong nhiều món ăn và dược phẩm. Hãy hái 3 quả crimberry rồi mang về cho tôi, tôi sẽ dạy bạn công thức. Nếu chưa rõ, hãy hỏi Ash.|Vậy là bạn đã quay lại rồi. Đây, tôi đặt sẵn một nồi nước dưới chân bạn. Nguyên liệu để nấu hot crim chỉ cần crimberry và nước. Ngoài ra bạn cần có nguồn lửa, nên hãy đứng cạnh đống lửa khi chế biến. Khi làm xong, hãy mang hot crim đến cho tôi, tôi sẽ thưởng cho bạn.</t>
   </si>
   <si>
     <t>Nhiệm vụ thuần hóa.</t>
   </si>
   <si>
+    <t>Còn #1 ngày nữa sẽ có cuộc tập kích. | Đang bị tập kích.</t>
+  </si>
+  <si>
     <t>Lại đây nào.</t>
   </si>
   <si>
     <t>Cái hố.</t>
-  </si>
-  <si>
-    <t>Có vẻ bạn vẫn còn hơi choáng. Hãy uống một ít hot crim để hồi phục mệt mỏi. Quả crimberry rất dễ tìm, thường được dùng làm nguyên liệu trong nhiều món ăn và dược phẩm. Hãy hái 3 quả crimberry rồi mang về cho tôi, tôi sẽ dạy bạn công thức. Nếu chưa rõ, hãy hỏi Ash.|Vậy là bạn đã quay lại rồi. Đây, tôi đặt sẵn một nồi nước dưới chân bạn. Nguyên liệu để nấu hot crim chỉ cần crimberry và nước. Ngoài ra bạn cần có nguồn lửa, nên hãy đứng cạnh đống lửa khi chế biến. Khi làm xong, hãy mang hot crim đến cho tôi, tôi sẽ thưởng cho bạn.</t>
-  </si>
-  <si>
-    <t>Còn #1 ngày nữa sẽ có cuộc tập kích. | Đang bị tập kích.</t>
   </si>
   <si>
     <t>Việc gì cũng cần thêm người giúp. | Hãy chiêu mộ 1 cư dân.</t>
@@ -1980,6 +2019,9 @@
     <t>|Bạn đã tìm thấy và giải cứu chú cún con mà Fiama đang tìm kiếm. Giờ bạn cần đưa nó về an toàn cho cô ấy và báo cáo lại.</t>
   </si>
   <si>
+    <t>Hãy học nghệ thuật thủ công và xây dựng một ngôi nhà. | Bạn cần chặt cây để lấy gỗ (Nhớ đừng chặt thêm phát nữa đấy), rồi dùng kỹ năng “Chế tạo Nhanh” để tạo ra một “bàn chế tác”. Sau khi đặt bàn chế tác xuống đất, hãy báo cáo lại cho Ashland.</t>
+  </si>
+  <si>
     <t>|Hãy chế tạo một “cây đuốc” tại “bàn chế tác”, trang bị nó vào ô nguồn sáng rồi báo cáo lại cho Ashland.</t>
   </si>
   <si>
@@ -2014,6 +2056,9 @@
     <t>Tôi có một người muốn giới thiệu cho bạn.|</t>
   </si>
   <si>
+    <t>Đến lúc kiếm tiền rồi. | Loytel đã nhờ bạn chế tạo một chiếc thùng xuất hàng. Hãy dùng nguyên liệu mà ông ấy đưa cho để chế tạo thùng, đặt nó xuống đất, rồi báo cáo lại cho Loytel. Nhớ rằng thùng vận chuyển bắt buộc phải dùng gỗ dong.</t>
+  </si>
+  <si>
     <t>Lại đây một chút. | Bạn đã được Loytel yêu cầu mang đến một cái cuốc và một cái xẻng. Hãy chế tạo hai nông cụ này rồi báo cáo lại cho Loytel.</t>
   </si>
   <si>
@@ -2071,37 +2116,37 @@
     <t>Xin mời đến đây, #pc.</t>
   </si>
   <si>
+    <t>Farris nhờ bạn tìm Loytel – người đã mất tích. Anh ấy lúc nào cũng nói rằng muốn được uống rượu của Olvina thêm một lần nữa…</t>
+  </si>
+  <si>
+    <t>|Bạn đã hứa sẽ giúp Loytel trả món nợ 20 triệu Oren. Hãy lấy các giấy nợ từ Loytel và nộp vào hòm thuế.</t>
+  </si>
+  <si>
     <t>Xoa xoa.</t>
   </si>
   <si>
     <t>Ta không ngủ được.</t>
   </si>
   <si>
-    <t>Farris nhờ bạn tìm Loytel – người đã mất tích. Anh ấy lúc nào cũng nói rằng muốn được uống rượu của Olvina thêm một lần nữa…</t>
-  </si>
-  <si>
-    <t>|Bạn đã hứa sẽ giúp Loytel trả món nợ 20 triệu Oren. Hãy lấy các giấy nợ từ Loytel và nộp vào hòm thuế.</t>
-  </si>
-  <si>
     <t>Đêm nay thật tĩnh lặng.</t>
   </si>
   <si>
     <t>Ta có cảm giác từ nãy đến giờ có ai đó ở phía sau…</t>
   </si>
   <si>
+    <t>Mọi người, tập hợp lại đi! | Chúng ta phải tìm cách đối phó với Issizzle. (Còn tiếp)</t>
+  </si>
+  <si>
+    <t>Còn tiếp…</t>
+  </si>
+  <si>
+    <t>Bạn có thấy Kettle không? | Bạn đã nhận được chiếc vòng tay từ Demitas để phá kết giới quanh Làng Lưu Đày. Hãy tiến đến ngôi làng ở phía đông Mysilia.</t>
+  </si>
+  <si>
+    <t>|Bạn đã đến được Làng Lưu Đày. Hãy nói chuyện với Bicerin, trưởng làng. (Còn tiếp)</t>
+  </si>
+  <si>
     <t>Ngươi có thông thạo huyền thuật không?</t>
-  </si>
-  <si>
-    <t>Mọi người, tập hợp lại đi! | Chúng ta phải tìm cách đối phó với Issizzle. (Còn tiếp)</t>
-  </si>
-  <si>
-    <t>Còn tiếp…</t>
-  </si>
-  <si>
-    <t>Bạn có thấy Kettle không? | Bạn đã nhận được chiếc vòng tay từ Demitas để phá kết giới quanh Làng Lưu Đày. Hãy tiến đến ngôi làng ở phía đông Mysilia.</t>
-  </si>
-  <si>
-    <t>|Bạn đã đến được Làng Lưu Đày. Hãy nói chuyện với Bicerin, trưởng làng. (Còn tiếp)</t>
   </si>
   <si>
     <t>Tôi có chuyện muốn nói với bạn.| Về thông tin liên quan đến Lisanus, Farris đã khuyên bạn hãy tìm gặp em gái mình là Siorsia. Nghe nói Siorsia đang ở tại ngôi làng Olvina, nằm về phía tây nam của Home.</t>
@@ -2274,27 +2319,26 @@
     <t>Hoàn thành.</t>
   </si>
   <si>
-    <t>Hãy học nghệ thuật thủ công và xây dựng một ngôi nhà. | Bạn cần chặt cây để lấy gỗ (Nhớ đừng chặt thêm phát nữa đấy), rồi dùng kỹ năng “Chế tạo Nhanh” để tạo ra một “bàn chế tác”. Sau khi đặt bàn chế tác xuống đất, hãy báo cáo lại cho Ashland.</t>
-  </si>
-  <si>
-    <t>Đến lúc kiếm tiền rồi. | Loytel đã nhờ bạn chế tạo một chiếc thùng xuất hàng. Hãy dùng nguyên liệu mà ông ấy đưa cho để chế tạo thùng, đặt nó xuống đất, rồi báo cáo lại cho Loytel. Nhớ rằng thùng vận chuyển bắt buộc phải dùng gỗ dong.</t>
+    <t>|Bicerin, trưởng lão của những kẻ lưu đày, đã giao cho bạn nhiệm vụ đưa Duponne trở về từ Đền Thờ Chìm của Lurie.</t>
+  </si>
+  <si>
+    <t>|Bạn đã tìm thấy Duponne, nay đã hóa thành rồng, sâu trong Đền Thờ Chìm của Lurie. Đưa cô ấy trở về giờ đây dường như là điều không thể, trừ khi còn có cách nào khác.</t>
+  </si>
+  <si>
+    <t>|Nhiệm vụ do Bicerin giao đã hoàn thành. Đã đến lúc quay về Làng Lưu Đày để báo cáo cho ông ấy.</t>
+  </si>
+  <si>
+    <t>|Hãy chờ Kettle trở về. (Còn tiếp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2325,13 +2369,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2646,22 +2686,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="14" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2705,12 +2742,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2722,7 +2759,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2731,12 +2768,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2748,7 +2785,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2757,15 +2794,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F5" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2774,12 +2811,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2791,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2800,12 +2837,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2817,7 +2854,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2826,46 +2863,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>554</v>
       </c>
       <c r="F8" t="s">
-        <v>573</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>554</v>
       </c>
       <c r="F9" t="s">
-        <v>574</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2876,8 +2913,8 @@
       <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>576</v>
+      <c r="F10" t="s">
+        <v>588</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2886,15 +2923,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F11" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2903,12 +2940,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -2919,8 +2956,8 @@
       <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>580</v>
+      <c r="F12" t="s">
+        <v>590</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -2929,7 +2966,7 @@
         <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
@@ -2938,12 +2975,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2955,7 +2992,7 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -2964,7 +3001,7 @@
         <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -2973,12 +3010,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -2990,7 +3027,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -2999,12 +3036,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -3016,7 +3053,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -3025,12 +3062,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -3042,7 +3079,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -3051,12 +3088,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
@@ -3068,40 +3105,40 @@
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="H17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
@@ -3112,30 +3149,30 @@
       <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20" t="s">
         <v>91</v>
       </c>
       <c r="H20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
@@ -3147,7 +3184,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3156,15 +3193,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F23" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="G23" t="s">
         <v>100</v>
@@ -3173,15 +3210,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
@@ -3190,20 +3227,20 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
@@ -3215,7 +3252,7 @@
         <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -3224,20 +3261,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
         <v>113</v>
@@ -3249,7 +3286,7 @@
         <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -3258,12 +3295,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -3275,7 +3312,7 @@
         <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3284,12 +3321,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C30" t="s">
         <v>120</v>
@@ -3301,7 +3338,7 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="G30" t="s">
         <v>122</v>
@@ -3310,15 +3347,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F31" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G31" t="s">
         <v>125</v>
@@ -3327,20 +3364,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C33" t="s">
         <v>129</v>
@@ -3352,7 +3389,7 @@
         <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>675</v>
+        <v>605</v>
       </c>
       <c r="G33" t="s">
         <v>131</v>
@@ -3361,15 +3398,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F34" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="G34" t="s">
         <v>134</v>
@@ -3378,15 +3415,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F35" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="G35" t="s">
         <v>137</v>
@@ -3395,20 +3432,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C37" t="s">
         <v>141</v>
@@ -3420,7 +3457,7 @@
         <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="G37" t="s">
         <v>143</v>
@@ -3429,15 +3466,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F38" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
@@ -3446,20 +3483,20 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C40" t="s">
         <v>150</v>
@@ -3471,7 +3508,7 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -3480,20 +3517,20 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C42" t="s">
         <v>156</v>
@@ -3505,7 +3542,7 @@
         <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -3514,32 +3551,32 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="G43" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F43" t="s">
+        <v>612</v>
+      </c>
+      <c r="G43" t="s">
         <v>161</v>
       </c>
       <c r="H43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F44" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="G44" t="s">
         <v>164</v>
@@ -3548,15 +3585,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F45" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G45" t="s">
         <v>167</v>
@@ -3565,15 +3602,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F46" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G46" t="s">
         <v>167</v>
@@ -3582,15 +3619,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F47" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3599,20 +3636,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C49" t="s">
         <v>175</v>
@@ -3624,7 +3661,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3633,12 +3670,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C50" t="s">
         <v>180</v>
@@ -3650,7 +3687,7 @@
         <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="G50" t="s">
         <v>182</v>
@@ -3659,20 +3696,20 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C52" t="s">
         <v>186</v>
@@ -3684,7 +3721,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3693,20 +3730,20 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C54" t="s">
         <v>192</v>
@@ -3718,7 +3755,7 @@
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="G54" t="s">
         <v>194</v>
@@ -3727,12 +3764,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C55" t="s">
         <v>197</v>
@@ -3744,7 +3781,7 @@
         <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G55" t="s">
         <v>199</v>
@@ -3753,12 +3790,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C56" t="s">
         <v>202</v>
@@ -3770,7 +3807,7 @@
         <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="G56" t="s">
         <v>204</v>
@@ -3779,12 +3816,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C57" t="s">
         <v>207</v>
@@ -3796,7 +3833,7 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
@@ -3805,12 +3842,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C58" t="s">
         <v>212</v>
@@ -3831,12 +3868,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C59" t="s">
         <v>217</v>
@@ -3848,7 +3885,7 @@
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="G59" t="s">
         <v>219</v>
@@ -3857,12 +3894,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C60" t="s">
         <v>222</v>
@@ -3874,7 +3911,7 @@
         <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -3883,12 +3920,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C61" t="s">
         <v>227</v>
@@ -3900,7 +3937,7 @@
         <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="G61" t="s">
         <v>229</v>
@@ -3909,15 +3946,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F62" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -3926,15 +3963,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F63" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -3943,15 +3980,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F64" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="G64" t="s">
         <v>238</v>
@@ -3960,15 +3997,15 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F65" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="G65" t="s">
         <v>241</v>
@@ -3977,15 +4014,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F66" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="G66" t="s">
         <v>244</v>
@@ -3994,15 +4031,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F67" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="G67" t="s">
         <v>247</v>
@@ -4011,15 +4048,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F68" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="G68" t="s">
         <v>250</v>
@@ -4028,15 +4065,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F69" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="G69" t="s">
         <v>253</v>
@@ -4045,15 +4082,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="F70" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -4062,7 +4099,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -4090,12 +4127,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C73" t="s">
         <v>262</v>
@@ -4107,7 +4144,7 @@
         <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="G73" t="s">
         <v>264</v>
@@ -4116,12 +4153,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
         <v>267</v>
@@ -4142,12 +4179,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C75" t="s">
         <v>272</v>
@@ -4159,7 +4196,7 @@
         <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="G75" t="s">
         <v>274</v>
@@ -4168,12 +4205,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
         <v>277</v>
@@ -4185,7 +4222,7 @@
         <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="G76" t="s">
         <v>279</v>
@@ -4194,12 +4231,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="C77" t="s">
         <v>282</v>
@@ -4211,7 +4248,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4220,23 +4257,23 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="H78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
         <v>289</v>
@@ -4248,7 +4285,7 @@
         <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="G79" t="s">
         <v>291</v>
@@ -4257,12 +4294,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
         <v>294</v>
@@ -4274,7 +4311,7 @@
         <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G80" t="s">
         <v>296</v>
@@ -4283,12 +4320,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C81" t="s">
         <v>299</v>
@@ -4300,7 +4337,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4309,12 +4346,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C82" t="s">
         <v>304</v>
@@ -4326,7 +4363,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="G82" t="s">
         <v>224</v>
@@ -4335,12 +4372,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C83" t="s">
         <v>307</v>
@@ -4352,7 +4389,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4361,12 +4398,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C84" t="s">
         <v>312</v>
@@ -4378,7 +4415,7 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4387,15 +4424,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="F85" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4404,12 +4441,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C86" t="s">
         <v>320</v>
@@ -4421,7 +4458,7 @@
         <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="G86" t="s">
         <v>322</v>
@@ -4430,15 +4467,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="G87" t="s">
         <v>325</v>
@@ -4447,1217 +4484,1285 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>550</v>
-      </c>
-      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>690</v>
+      </c>
+      <c r="G88" t="s">
         <v>328</v>
       </c>
-      <c r="D88" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>329</v>
       </c>
-      <c r="F88" t="s">
-        <v>628</v>
-      </c>
-      <c r="G88" t="s">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>330</v>
       </c>
-      <c r="H88" t="s">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>691</v>
+      </c>
+      <c r="G89" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H89" t="s">
         <v>332</v>
       </c>
-      <c r="B89" t="s">
-        <v>547</v>
-      </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>333</v>
       </c>
-      <c r="D89" t="s">
-        <v>333</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>692</v>
+      </c>
+      <c r="G90" t="s">
         <v>334</v>
       </c>
-      <c r="F89" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="H90" t="s">
         <v>335</v>
       </c>
-      <c r="B90" t="s">
-        <v>547</v>
-      </c>
-      <c r="C90" t="s">
-        <v>333</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" t="s">
-        <v>334</v>
-      </c>
-      <c r="F90" t="s">
-        <v>269</v>
-      </c>
-      <c r="G90" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>547</v>
-      </c>
-      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>693</v>
+      </c>
+      <c r="G91" t="s">
         <v>337</v>
       </c>
-      <c r="D91" t="s">
-        <v>337</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>338</v>
       </c>
-      <c r="F91" t="s">
-        <v>633</v>
-      </c>
-      <c r="H91" t="s">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>563</v>
+      </c>
+      <c r="C92" t="s">
         <v>340</v>
       </c>
-      <c r="B92" t="s">
-        <v>558</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" t="s">
         <v>341</v>
       </c>
-      <c r="D92" t="s">
-        <v>341</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>647</v>
+      </c>
+      <c r="G92" t="s">
         <v>342</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>346</v>
+      </c>
+      <c r="F93" t="s">
         <v>269</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>269</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H93" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>343</v>
-      </c>
-      <c r="B93" t="s">
-        <v>559</v>
-      </c>
-      <c r="C93" t="s">
-        <v>344</v>
-      </c>
-      <c r="D93" t="s">
-        <v>344</v>
-      </c>
-      <c r="E93" t="s">
-        <v>345</v>
-      </c>
-      <c r="F93" t="s">
-        <v>346</v>
-      </c>
-      <c r="G93" t="s">
-        <v>346</v>
-      </c>
-      <c r="H93" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C94" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>348</v>
       </c>
-      <c r="D94" t="s">
-        <v>348</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="B95" t="s">
+        <v>560</v>
+      </c>
+      <c r="C95" t="s">
         <v>349</v>
       </c>
-      <c r="F94" t="s">
-        <v>346</v>
-      </c>
-      <c r="G94" t="s">
-        <v>346</v>
-      </c>
-      <c r="H94" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" t="s">
         <v>350</v>
       </c>
-      <c r="B95" t="s">
-        <v>559</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="F95" t="s">
+        <v>648</v>
+      </c>
+      <c r="H95" t="s">
         <v>351</v>
       </c>
-      <c r="D95" t="s">
-        <v>351</v>
-      </c>
-      <c r="E95" t="s">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>352</v>
       </c>
-      <c r="F95" t="s">
-        <v>346</v>
-      </c>
-      <c r="G95" t="s">
-        <v>346</v>
-      </c>
-      <c r="H95" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" t="s">
         <v>353</v>
       </c>
-      <c r="B96" t="s">
-        <v>559</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" t="s">
         <v>354</v>
       </c>
-      <c r="D96" t="s">
-        <v>354</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" t="s">
+        <v>269</v>
+      </c>
+      <c r="H96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>355</v>
       </c>
-      <c r="F96" t="s">
-        <v>346</v>
-      </c>
-      <c r="G96" t="s">
-        <v>346</v>
-      </c>
-      <c r="H96" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>572</v>
+      </c>
+      <c r="C97" t="s">
         <v>356</v>
       </c>
-      <c r="B97" t="s">
-        <v>540</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>356</v>
+      </c>
+      <c r="E97" t="s">
         <v>357</v>
       </c>
-      <c r="D97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>358</v>
       </c>
-      <c r="F97" t="s">
-        <v>634</v>
-      </c>
       <c r="G97" t="s">
+        <v>358</v>
+      </c>
+      <c r="H97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>359</v>
       </c>
-      <c r="H97" t="s">
+      <c r="B98" t="s">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
         <v>361</v>
       </c>
-      <c r="B98" t="s">
-        <v>540</v>
-      </c>
       <c r="F98" t="s">
-        <v>635</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
+        <v>358</v>
+      </c>
+      <c r="H98" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>362</v>
       </c>
-      <c r="H98" t="s">
+      <c r="B99" t="s">
+        <v>572</v>
+      </c>
+      <c r="C99" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99" t="s">
         <v>364</v>
       </c>
-      <c r="B99" t="s">
-        <v>547</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="F99" t="s">
+        <v>358</v>
+      </c>
+      <c r="G99" t="s">
+        <v>358</v>
+      </c>
+      <c r="H99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>365</v>
       </c>
-      <c r="D99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="B100" t="s">
+        <v>572</v>
+      </c>
+      <c r="C100" t="s">
         <v>366</v>
       </c>
-      <c r="F99" t="s">
-        <v>636</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="D100" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" t="s">
         <v>367</v>
       </c>
-      <c r="H99" t="s">
+      <c r="F100" t="s">
+        <v>358</v>
+      </c>
+      <c r="G100" t="s">
+        <v>358</v>
+      </c>
+      <c r="H100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
+        <v>552</v>
+      </c>
+      <c r="C101" t="s">
         <v>369</v>
       </c>
-      <c r="B100" t="s">
-        <v>540</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D101" t="s">
+        <v>369</v>
+      </c>
+      <c r="E101" t="s">
         <v>370</v>
       </c>
-      <c r="D100" t="s">
-        <v>370</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F101" t="s">
+        <v>649</v>
+      </c>
+      <c r="G101" t="s">
         <v>371</v>
       </c>
-      <c r="F100" t="s">
-        <v>637</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H101" t="s">
         <v>372</v>
       </c>
-      <c r="H100" t="s">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
+        <v>552</v>
+      </c>
+      <c r="F102" t="s">
+        <v>650</v>
+      </c>
+      <c r="G102" t="s">
         <v>374</v>
       </c>
-      <c r="B101" t="s">
-        <v>540</v>
-      </c>
-      <c r="F101" t="s">
-        <v>638</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H102" t="s">
         <v>375</v>
       </c>
-      <c r="H101" t="s">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
+        <v>560</v>
+      </c>
+      <c r="C103" t="s">
         <v>377</v>
       </c>
-      <c r="B102" t="s">
-        <v>547</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D103" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" t="s">
         <v>378</v>
       </c>
-      <c r="D102" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F103" t="s">
+        <v>651</v>
+      </c>
+      <c r="G103" t="s">
         <v>379</v>
       </c>
-      <c r="F102" t="s">
-        <v>639</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H103" t="s">
         <v>380</v>
       </c>
-      <c r="H102" t="s">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B104" t="s">
+        <v>552</v>
+      </c>
+      <c r="C104" t="s">
         <v>382</v>
       </c>
-      <c r="B103" t="s">
-        <v>540</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D104" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" t="s">
         <v>383</v>
       </c>
-      <c r="D103" t="s">
-        <v>383</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F104" t="s">
+        <v>652</v>
+      </c>
+      <c r="G104" t="s">
         <v>384</v>
       </c>
-      <c r="F103" t="s">
-        <v>640</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H104" t="s">
         <v>385</v>
       </c>
-      <c r="H103" t="s">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B105" t="s">
+        <v>552</v>
+      </c>
+      <c r="F105" t="s">
+        <v>653</v>
+      </c>
+      <c r="G105" t="s">
         <v>387</v>
       </c>
-      <c r="B104" t="s">
-        <v>540</v>
-      </c>
-      <c r="F104" t="s">
-        <v>641</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H105" t="s">
         <v>388</v>
       </c>
-      <c r="H104" t="s">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>390</v>
-      </c>
-      <c r="B105" t="s">
-        <v>547</v>
-      </c>
-      <c r="C105" t="s">
-        <v>391</v>
-      </c>
-      <c r="D105" t="s">
-        <v>391</v>
-      </c>
-      <c r="E105" t="s">
-        <v>392</v>
-      </c>
-      <c r="F105" t="s">
-        <v>642</v>
-      </c>
-      <c r="G105" t="s">
-        <v>393</v>
-      </c>
-      <c r="H105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>395</v>
       </c>
       <c r="B106" t="s">
         <v>560</v>
       </c>
       <c r="C106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D106" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" t="s">
+        <v>391</v>
+      </c>
+      <c r="F106" t="s">
+        <v>654</v>
+      </c>
+      <c r="G106" t="s">
+        <v>392</v>
+      </c>
+      <c r="H106" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" t="s">
+        <v>552</v>
+      </c>
+      <c r="C107" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" t="s">
         <v>396</v>
       </c>
-      <c r="D106" t="s">
-        <v>396</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F107" t="s">
+        <v>655</v>
+      </c>
+      <c r="G107" t="s">
         <v>397</v>
       </c>
-      <c r="F106" t="s">
-        <v>643</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H107" t="s">
         <v>398</v>
       </c>
-      <c r="H106" t="s">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B108" t="s">
+        <v>552</v>
+      </c>
+      <c r="F108" t="s">
+        <v>656</v>
+      </c>
+      <c r="G108" t="s">
         <v>400</v>
       </c>
-      <c r="B107" t="s">
-        <v>561</v>
-      </c>
-      <c r="F107" t="s">
-        <v>644</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H108" t="s">
         <v>401</v>
       </c>
-      <c r="H107" t="s">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B109" t="s">
+        <v>560</v>
+      </c>
+      <c r="C109" t="s">
         <v>403</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D109" t="s">
+        <v>403</v>
+      </c>
+      <c r="E109" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" t="s">
+        <v>657</v>
+      </c>
+      <c r="G109" t="s">
+        <v>405</v>
+      </c>
+      <c r="H109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>407</v>
+      </c>
+      <c r="B110" t="s">
+        <v>573</v>
+      </c>
+      <c r="C110" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
+        <v>408</v>
+      </c>
+      <c r="E110" t="s">
+        <v>409</v>
+      </c>
+      <c r="F110" t="s">
+        <v>658</v>
+      </c>
+      <c r="G110" t="s">
+        <v>410</v>
+      </c>
+      <c r="H110" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>412</v>
+      </c>
+      <c r="B111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F111" t="s">
+        <v>659</v>
+      </c>
+      <c r="G111" t="s">
+        <v>413</v>
+      </c>
+      <c r="H111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" t="s">
+        <v>560</v>
+      </c>
+      <c r="C112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D112" t="s">
+        <v>416</v>
+      </c>
+      <c r="E112" t="s">
+        <v>417</v>
+      </c>
+      <c r="F112" t="s">
+        <v>660</v>
+      </c>
+      <c r="G112" t="s">
+        <v>418</v>
+      </c>
+      <c r="H112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>420</v>
+      </c>
+      <c r="B113" t="s">
+        <v>560</v>
+      </c>
+      <c r="C113" t="s">
+        <v>421</v>
+      </c>
+      <c r="D113" t="s">
+        <v>421</v>
+      </c>
+      <c r="E113" t="s">
+        <v>422</v>
+      </c>
+      <c r="F113" t="s">
+        <v>661</v>
+      </c>
+      <c r="G113" t="s">
+        <v>423</v>
+      </c>
+      <c r="H113" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>425</v>
+      </c>
+      <c r="B114" t="s">
+        <v>575</v>
+      </c>
+      <c r="C114" t="s">
+        <v>426</v>
+      </c>
+      <c r="D114" t="s">
+        <v>426</v>
+      </c>
+      <c r="E114" t="s">
+        <v>427</v>
+      </c>
+      <c r="F114" t="s">
+        <v>662</v>
+      </c>
+      <c r="G114" t="s">
+        <v>428</v>
+      </c>
+      <c r="H114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B115" t="s">
+        <v>560</v>
+      </c>
+      <c r="C115" t="s">
+        <v>431</v>
+      </c>
+      <c r="D115" t="s">
+        <v>431</v>
+      </c>
+      <c r="E115" t="s">
+        <v>432</v>
+      </c>
+      <c r="F115" t="s">
+        <v>663</v>
+      </c>
+      <c r="G115" t="s">
+        <v>433</v>
+      </c>
+      <c r="H115" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>435</v>
+      </c>
+      <c r="B116" t="s">
+        <v>560</v>
+      </c>
+      <c r="C116" t="s">
+        <v>436</v>
+      </c>
+      <c r="D116" t="s">
+        <v>436</v>
+      </c>
+      <c r="E116" t="s">
+        <v>437</v>
+      </c>
+      <c r="F116" t="s">
+        <v>664</v>
+      </c>
+      <c r="G116" t="s">
+        <v>438</v>
+      </c>
+      <c r="H116" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
+        <v>441</v>
+      </c>
+      <c r="D117" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" t="s">
+        <v>442</v>
+      </c>
+      <c r="F117" t="s">
+        <v>665</v>
+      </c>
+      <c r="G117" t="s">
+        <v>443</v>
+      </c>
+      <c r="H117" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" t="s">
+        <v>577</v>
+      </c>
+      <c r="C118" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" t="s">
+        <v>446</v>
+      </c>
+      <c r="E118" t="s">
+        <v>447</v>
+      </c>
+      <c r="F118" t="s">
+        <v>666</v>
+      </c>
+      <c r="G118" t="s">
+        <v>448</v>
+      </c>
+      <c r="H118" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" t="s">
+        <v>560</v>
+      </c>
+      <c r="C119" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" t="s">
+        <v>451</v>
+      </c>
+      <c r="E119" t="s">
+        <v>452</v>
+      </c>
+      <c r="F119" t="s">
+        <v>667</v>
+      </c>
+      <c r="G119" t="s">
+        <v>453</v>
+      </c>
+      <c r="H119" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>455</v>
+      </c>
+      <c r="B120" t="s">
+        <v>560</v>
+      </c>
+      <c r="C120" t="s">
+        <v>456</v>
+      </c>
+      <c r="D120" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" t="s">
+        <v>457</v>
+      </c>
+      <c r="F120" t="s">
+        <v>668</v>
+      </c>
+      <c r="G120" t="s">
+        <v>458</v>
+      </c>
+      <c r="H120" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>460</v>
+      </c>
+      <c r="B121" t="s">
+        <v>560</v>
+      </c>
+      <c r="C121" t="s">
+        <v>461</v>
+      </c>
+      <c r="D121" t="s">
+        <v>461</v>
+      </c>
+      <c r="E121" t="s">
+        <v>462</v>
+      </c>
+      <c r="F121" t="s">
+        <v>669</v>
+      </c>
+      <c r="G121" t="s">
+        <v>463</v>
+      </c>
+      <c r="H121" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>465</v>
+      </c>
+      <c r="B122" t="s">
+        <v>560</v>
+      </c>
+      <c r="C122" t="s">
+        <v>466</v>
+      </c>
+      <c r="D122" t="s">
+        <v>466</v>
+      </c>
+      <c r="E122" t="s">
+        <v>467</v>
+      </c>
+      <c r="F122" t="s">
+        <v>670</v>
+      </c>
+      <c r="G122" t="s">
+        <v>468</v>
+      </c>
+      <c r="H122" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>470</v>
+      </c>
+      <c r="B123" t="s">
+        <v>563</v>
+      </c>
+      <c r="C123" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" t="s">
+        <v>472</v>
+      </c>
+      <c r="F123" t="s">
+        <v>671</v>
+      </c>
+      <c r="G123" t="s">
+        <v>473</v>
+      </c>
+      <c r="H123" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" t="s">
+        <v>560</v>
+      </c>
+      <c r="C124" t="s">
+        <v>476</v>
+      </c>
+      <c r="D124" t="s">
+        <v>476</v>
+      </c>
+      <c r="E124" t="s">
+        <v>477</v>
+      </c>
+      <c r="F124" t="s">
+        <v>672</v>
+      </c>
+      <c r="G124" t="s">
+        <v>478</v>
+      </c>
+      <c r="H124" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" t="s">
+        <v>560</v>
+      </c>
+      <c r="C125" t="s">
+        <v>481</v>
+      </c>
+      <c r="D125" t="s">
+        <v>481</v>
+      </c>
+      <c r="E125" t="s">
+        <v>482</v>
+      </c>
+      <c r="F125" t="s">
+        <v>673</v>
+      </c>
+      <c r="G125" t="s">
+        <v>483</v>
+      </c>
+      <c r="H125" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>485</v>
+      </c>
+      <c r="B126" t="s">
+        <v>560</v>
+      </c>
+      <c r="C126" t="s">
+        <v>486</v>
+      </c>
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" t="s">
+        <v>487</v>
+      </c>
+      <c r="F126" t="s">
+        <v>674</v>
+      </c>
+      <c r="G126" t="s">
+        <v>488</v>
+      </c>
+      <c r="H126" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>490</v>
+      </c>
+      <c r="B127" t="s">
+        <v>560</v>
+      </c>
+      <c r="C127" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" t="s">
+        <v>491</v>
+      </c>
+      <c r="E127" t="s">
+        <v>492</v>
+      </c>
+      <c r="F127" t="s">
+        <v>675</v>
+      </c>
+      <c r="G127" t="s">
+        <v>493</v>
+      </c>
+      <c r="H127" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" t="s">
+        <v>496</v>
+      </c>
+      <c r="D128" t="s">
+        <v>496</v>
+      </c>
+      <c r="E128" t="s">
+        <v>497</v>
+      </c>
+      <c r="F128" t="s">
+        <v>676</v>
+      </c>
+      <c r="G128" t="s">
+        <v>498</v>
+      </c>
+      <c r="H128" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>500</v>
+      </c>
+      <c r="B129" t="s">
+        <v>560</v>
+      </c>
+      <c r="C129" t="s">
+        <v>501</v>
+      </c>
+      <c r="D129" t="s">
+        <v>501</v>
+      </c>
+      <c r="E129" t="s">
+        <v>502</v>
+      </c>
+      <c r="F129" t="s">
+        <v>677</v>
+      </c>
+      <c r="G129" t="s">
+        <v>503</v>
+      </c>
+      <c r="H129" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>505</v>
+      </c>
+      <c r="B130" t="s">
+        <v>560</v>
+      </c>
+      <c r="C130" t="s">
+        <v>506</v>
+      </c>
+      <c r="D130" t="s">
+        <v>506</v>
+      </c>
+      <c r="E130" t="s">
+        <v>507</v>
+      </c>
+      <c r="F130" t="s">
+        <v>678</v>
+      </c>
+      <c r="G130" t="s">
+        <v>508</v>
+      </c>
+      <c r="H130" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>510</v>
+      </c>
+      <c r="B131" t="s">
+        <v>560</v>
+      </c>
+      <c r="C131" t="s">
+        <v>506</v>
+      </c>
+      <c r="D131" t="s">
+        <v>506</v>
+      </c>
+      <c r="E131" t="s">
+        <v>507</v>
+      </c>
+      <c r="F131" t="s">
+        <v>679</v>
+      </c>
+      <c r="G131" t="s">
+        <v>508</v>
+      </c>
+      <c r="H131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>512</v>
+      </c>
+      <c r="B132" t="s">
+        <v>560</v>
+      </c>
+      <c r="C132" t="s">
+        <v>513</v>
+      </c>
+      <c r="D132" t="s">
+        <v>513</v>
+      </c>
+      <c r="E132" t="s">
+        <v>514</v>
+      </c>
+      <c r="F132" t="s">
+        <v>680</v>
+      </c>
+      <c r="G132" t="s">
+        <v>515</v>
+      </c>
+      <c r="H132" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>517</v>
+      </c>
+      <c r="B133" t="s">
+        <v>560</v>
+      </c>
+      <c r="C133" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>518</v>
+      </c>
+      <c r="E133" t="s">
+        <v>519</v>
+      </c>
+      <c r="F133" t="s">
+        <v>681</v>
+      </c>
+      <c r="G133" t="s">
+        <v>520</v>
+      </c>
+      <c r="H133" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>522</v>
+      </c>
+      <c r="B134" t="s">
+        <v>560</v>
+      </c>
+      <c r="C134" t="s">
+        <v>523</v>
+      </c>
+      <c r="D134" t="s">
+        <v>523</v>
+      </c>
+      <c r="E134" t="s">
+        <v>524</v>
+      </c>
+      <c r="F134" t="s">
+        <v>682</v>
+      </c>
+      <c r="G134" t="s">
+        <v>525</v>
+      </c>
+      <c r="H134" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" t="s">
+        <v>560</v>
+      </c>
+      <c r="C135" t="s">
+        <v>528</v>
+      </c>
+      <c r="D135" t="s">
+        <v>528</v>
+      </c>
+      <c r="E135" t="s">
+        <v>529</v>
+      </c>
+      <c r="F135" t="s">
+        <v>683</v>
+      </c>
+      <c r="G135" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>532</v>
+      </c>
+      <c r="B136" t="s">
+        <v>560</v>
+      </c>
+      <c r="C136" t="s">
+        <v>533</v>
+      </c>
+      <c r="D136" t="s">
+        <v>533</v>
+      </c>
+      <c r="E136" t="s">
+        <v>534</v>
+      </c>
+      <c r="F136" t="s">
+        <v>684</v>
+      </c>
+      <c r="G136" t="s">
+        <v>535</v>
+      </c>
+      <c r="H136" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" t="s">
+        <v>578</v>
+      </c>
+      <c r="C137" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" t="s">
+        <v>538</v>
+      </c>
+      <c r="E137" t="s">
+        <v>539</v>
+      </c>
+      <c r="F137" t="s">
+        <v>685</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+      <c r="H137" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>542</v>
+      </c>
+      <c r="B138" t="s">
+        <v>579</v>
+      </c>
+      <c r="C138" t="s">
+        <v>543</v>
+      </c>
+      <c r="D138" t="s">
+        <v>543</v>
+      </c>
+      <c r="E138" t="s">
+        <v>544</v>
+      </c>
+      <c r="F138" t="s">
+        <v>686</v>
+      </c>
+      <c r="G138" t="s">
+        <v>545</v>
+      </c>
+      <c r="H138" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>547</v>
       </c>
-      <c r="C108" t="s">
-        <v>404</v>
-      </c>
-      <c r="D108" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" t="s">
-        <v>405</v>
-      </c>
-      <c r="F108" t="s">
-        <v>645</v>
-      </c>
-      <c r="G108" t="s">
-        <v>406</v>
-      </c>
-      <c r="H108" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" t="s">
-        <v>547</v>
-      </c>
-      <c r="C109" t="s">
-        <v>409</v>
-      </c>
-      <c r="D109" t="s">
-        <v>409</v>
-      </c>
-      <c r="E109" t="s">
-        <v>410</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>413</v>
-      </c>
-      <c r="B110" t="s">
-        <v>562</v>
-      </c>
-      <c r="C110" t="s">
-        <v>414</v>
-      </c>
-      <c r="D110" t="s">
-        <v>414</v>
-      </c>
-      <c r="E110" t="s">
-        <v>415</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H110" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>418</v>
-      </c>
-      <c r="B111" t="s">
-        <v>547</v>
-      </c>
-      <c r="C111" t="s">
-        <v>419</v>
-      </c>
-      <c r="D111" t="s">
-        <v>419</v>
-      </c>
-      <c r="E111" t="s">
-        <v>420</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H111" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>423</v>
-      </c>
-      <c r="B112" t="s">
-        <v>547</v>
-      </c>
-      <c r="C112" t="s">
-        <v>424</v>
-      </c>
-      <c r="D112" t="s">
-        <v>424</v>
-      </c>
-      <c r="E112" t="s">
-        <v>425</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H112" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>428</v>
-      </c>
-      <c r="B113" t="s">
-        <v>563</v>
-      </c>
-      <c r="C113" t="s">
-        <v>429</v>
-      </c>
-      <c r="D113" t="s">
-        <v>429</v>
-      </c>
-      <c r="E113" t="s">
-        <v>430</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H113" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>433</v>
-      </c>
-      <c r="B114" t="s">
-        <v>564</v>
-      </c>
-      <c r="C114" t="s">
-        <v>434</v>
-      </c>
-      <c r="D114" t="s">
-        <v>434</v>
-      </c>
-      <c r="E114" t="s">
-        <v>435</v>
-      </c>
-      <c r="F114" t="s">
-        <v>651</v>
-      </c>
-      <c r="G114" t="s">
-        <v>436</v>
-      </c>
-      <c r="H114" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>438</v>
-      </c>
-      <c r="B115" t="s">
-        <v>547</v>
-      </c>
-      <c r="C115" t="s">
-        <v>439</v>
-      </c>
-      <c r="D115" t="s">
-        <v>439</v>
-      </c>
-      <c r="E115" t="s">
-        <v>440</v>
-      </c>
-      <c r="F115" t="s">
-        <v>652</v>
-      </c>
-      <c r="G115" t="s">
-        <v>441</v>
-      </c>
-      <c r="H115" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>443</v>
-      </c>
-      <c r="B116" t="s">
-        <v>547</v>
-      </c>
-      <c r="C116" t="s">
-        <v>444</v>
-      </c>
-      <c r="D116" t="s">
-        <v>444</v>
-      </c>
-      <c r="E116" t="s">
-        <v>445</v>
-      </c>
-      <c r="F116" t="s">
-        <v>653</v>
-      </c>
-      <c r="G116" t="s">
-        <v>446</v>
-      </c>
-      <c r="H116" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>448</v>
-      </c>
-      <c r="B117" t="s">
-        <v>547</v>
-      </c>
-      <c r="C117" t="s">
-        <v>449</v>
-      </c>
-      <c r="D117" t="s">
-        <v>449</v>
-      </c>
-      <c r="E117" t="s">
-        <v>450</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H117" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="300" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>453</v>
-      </c>
-      <c r="B118" t="s">
-        <v>547</v>
-      </c>
-      <c r="C118" t="s">
-        <v>454</v>
-      </c>
-      <c r="D118" t="s">
-        <v>454</v>
-      </c>
-      <c r="E118" t="s">
-        <v>455</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H118" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>458</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="B139" t="s">
+        <v>580</v>
+      </c>
+      <c r="C139" t="s">
+        <v>548</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" t="s">
+        <v>549</v>
+      </c>
+      <c r="F139" t="s">
+        <v>687</v>
+      </c>
+      <c r="G139" t="s">
         <v>550</v>
       </c>
-      <c r="C119" t="s">
-        <v>459</v>
-      </c>
-      <c r="D119" t="s">
-        <v>459</v>
-      </c>
-      <c r="E119" t="s">
-        <v>460</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H119" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>463</v>
-      </c>
-      <c r="B120" t="s">
-        <v>547</v>
-      </c>
-      <c r="C120" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" t="s">
-        <v>464</v>
-      </c>
-      <c r="E120" t="s">
-        <v>465</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H120" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>468</v>
-      </c>
-      <c r="B121" t="s">
-        <v>547</v>
-      </c>
-      <c r="C121" t="s">
-        <v>469</v>
-      </c>
-      <c r="D121" t="s">
-        <v>469</v>
-      </c>
-      <c r="E121" t="s">
-        <v>470</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H121" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>473</v>
-      </c>
-      <c r="B122" t="s">
-        <v>547</v>
-      </c>
-      <c r="C122" t="s">
-        <v>474</v>
-      </c>
-      <c r="D122" t="s">
-        <v>474</v>
-      </c>
-      <c r="E122" t="s">
-        <v>475</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H122" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>478</v>
-      </c>
-      <c r="B123" t="s">
-        <v>547</v>
-      </c>
-      <c r="C123" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" t="s">
-        <v>479</v>
-      </c>
-      <c r="E123" t="s">
-        <v>480</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H123" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>483</v>
-      </c>
-      <c r="B124" t="s">
-        <v>547</v>
-      </c>
-      <c r="C124" t="s">
-        <v>484</v>
-      </c>
-      <c r="D124" t="s">
-        <v>484</v>
-      </c>
-      <c r="E124" t="s">
-        <v>485</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H124" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>488</v>
-      </c>
-      <c r="B125" t="s">
-        <v>547</v>
-      </c>
-      <c r="C125" t="s">
-        <v>489</v>
-      </c>
-      <c r="D125" t="s">
-        <v>489</v>
-      </c>
-      <c r="E125" t="s">
-        <v>490</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H125" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>493</v>
-      </c>
-      <c r="B126" t="s">
-        <v>547</v>
-      </c>
-      <c r="C126" t="s">
-        <v>494</v>
-      </c>
-      <c r="D126" t="s">
-        <v>494</v>
-      </c>
-      <c r="E126" t="s">
-        <v>495</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H126" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>498</v>
-      </c>
-      <c r="B127" t="s">
-        <v>547</v>
-      </c>
-      <c r="C127" t="s">
-        <v>494</v>
-      </c>
-      <c r="D127" t="s">
-        <v>494</v>
-      </c>
-      <c r="E127" t="s">
-        <v>495</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H127" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>500</v>
-      </c>
-      <c r="B128" t="s">
-        <v>547</v>
-      </c>
-      <c r="C128" t="s">
-        <v>501</v>
-      </c>
-      <c r="D128" t="s">
-        <v>501</v>
-      </c>
-      <c r="E128" t="s">
-        <v>502</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H128" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>505</v>
-      </c>
-      <c r="B129" t="s">
-        <v>547</v>
-      </c>
-      <c r="C129" t="s">
-        <v>506</v>
-      </c>
-      <c r="D129" t="s">
-        <v>506</v>
-      </c>
-      <c r="E129" t="s">
-        <v>507</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H129" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>510</v>
-      </c>
-      <c r="B130" t="s">
-        <v>547</v>
-      </c>
-      <c r="C130" t="s">
-        <v>511</v>
-      </c>
-      <c r="D130" t="s">
-        <v>511</v>
-      </c>
-      <c r="E130" t="s">
-        <v>512</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="H130" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>515</v>
-      </c>
-      <c r="B131" t="s">
-        <v>547</v>
-      </c>
-      <c r="C131" t="s">
-        <v>516</v>
-      </c>
-      <c r="D131" t="s">
-        <v>516</v>
-      </c>
-      <c r="E131" t="s">
-        <v>517</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="H131" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>520</v>
-      </c>
-      <c r="B132" t="s">
-        <v>547</v>
-      </c>
-      <c r="C132" t="s">
-        <v>521</v>
-      </c>
-      <c r="D132" t="s">
-        <v>521</v>
-      </c>
-      <c r="E132" t="s">
-        <v>522</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="H132" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="330" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>525</v>
-      </c>
-      <c r="B133" t="s">
-        <v>565</v>
-      </c>
-      <c r="C133" t="s">
-        <v>526</v>
-      </c>
-      <c r="D133" t="s">
-        <v>526</v>
-      </c>
-      <c r="E133" t="s">
-        <v>527</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H133" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>530</v>
-      </c>
-      <c r="B134" t="s">
-        <v>566</v>
-      </c>
-      <c r="C134" t="s">
-        <v>531</v>
-      </c>
-      <c r="D134" t="s">
-        <v>531</v>
-      </c>
-      <c r="E134" t="s">
-        <v>532</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H134" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>535</v>
-      </c>
-      <c r="B135" t="s">
-        <v>567</v>
-      </c>
-      <c r="C135" t="s">
-        <v>536</v>
-      </c>
-      <c r="D135" t="s">
-        <v>536</v>
-      </c>
-      <c r="E135" t="s">
-        <v>537</v>
-      </c>
-      <c r="F135" t="s">
-        <v>672</v>
-      </c>
-      <c r="G135" t="s">
-        <v>538</v>
-      </c>
-      <c r="H135" t="s">
-        <v>539</v>
+      <c r="H139" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:N139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Quest.xlsx
+++ b/data/Game/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1304F79-DA8A-4560-9C0C-68F6AF8A4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7B2A6-F41C-4E17-948F-74C750076FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$142</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="701">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>EA 23.200 Patch 2</t>
+    <t>EA 23.209 Patch 2</t>
   </si>
   <si>
     <t>Main Quest</t>
@@ -972,19 +972,34 @@
     <t>闇へ</t>
   </si>
   <si>
-    <t>Everyone, gather up, please.|You need to find a way to deal with Issizzle. (To Be Continued)</t>
-  </si>
-  <si>
-    <t>みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。(続く)</t>
+    <t>Everyone, gather up, please.|You need to find a way to deal with Issizzle.</t>
+  </si>
+  <si>
+    <t>みんな、集まってくれないか？|イスシズルに対処するための方法を考えなければならない。</t>
   </si>
   <si>
     <t>into_darkness1</t>
   </si>
   <si>
-    <t>To be continued.</t>
-  </si>
-  <si>
-    <t>次回へ続く。</t>
+    <t>|Let's wait for Kettle to return.</t>
+  </si>
+  <si>
+    <t>|ケトルの帰りを待とう。</t>
+  </si>
+  <si>
+    <t>into_darkness2</t>
+  </si>
+  <si>
+    <t>into_darkness3</t>
+  </si>
+  <si>
+    <t>into_darkness4</t>
+  </si>
+  <si>
+    <t>|It seems that you must throw some kind of liquid into the "Stagnation" at the farthest depth of the Crypt of the Damned. (to be continued)</t>
+  </si>
+  <si>
+    <t>|死者の洞窟の最奥にある「淀み」に、何らかの液体を投げ入れなければならないようだ。（続く）</t>
   </si>
   <si>
     <t>negotiation_darkness</t>
@@ -1041,10 +1056,10 @@
     <t>negotiation_darkness5</t>
   </si>
   <si>
-    <t>|Let's wait for Kettle to come back. (Continued)</t>
-  </si>
-  <si>
-    <t>|ケトルの帰りを待とう。（続く）</t>
+    <t>|You have finished your business in the Village of Atonement. Let's wait for Kettle to return.</t>
+  </si>
+  <si>
+    <t>|贖罪の村での用事を終えた。ケトルの帰りを待とう。</t>
   </si>
   <si>
     <t>demitas_spellwriter</t>
@@ -1904,6 +1919,9 @@
     <t>EA 23.100</t>
   </si>
   <si>
+    <t>EA 23.200 Patch 2</t>
+  </si>
+  <si>
     <t>Beta 22.52</t>
   </si>
   <si>
@@ -2134,16 +2152,19 @@
     <t>Ta có cảm giác từ nãy đến giờ có ai đó ở phía sau…</t>
   </si>
   <si>
-    <t>Mọi người, tập hợp lại đi! | Chúng ta phải tìm cách đối phó với Issizzle. (Còn tiếp)</t>
-  </si>
-  <si>
-    <t>Còn tiếp…</t>
-  </si>
-  <si>
     <t>Bạn có thấy Kettle không? | Bạn đã nhận được chiếc vòng tay từ Demitas để phá kết giới quanh Làng Lưu Đày. Hãy tiến đến ngôi làng ở phía đông Mysilia.</t>
   </si>
   <si>
     <t>|Bạn đã đến được Làng Lưu Đày. Hãy nói chuyện với Bicerin, trưởng làng. (Còn tiếp)</t>
+  </si>
+  <si>
+    <t>|Bicerin, trưởng lão của những kẻ lưu đày, đã giao cho bạn nhiệm vụ đưa Duponne trở về từ Đền Thờ Chìm của Lurie.</t>
+  </si>
+  <si>
+    <t>|Bạn đã tìm thấy Duponne, nay đã hóa thành rồng, sâu trong Đền Thờ Chìm của Lurie. Đưa cô ấy trở về giờ đây dường như là điều không thể, trừ khi còn có cách nào khác.</t>
+  </si>
+  <si>
+    <t>|Nhiệm vụ do Bicerin giao đã hoàn thành. Đã đến lúc quay về Làng Lưu Đày để báo cáo cho ông ấy.</t>
   </si>
   <si>
     <t>Ngươi có thông thạo huyền thuật không?</t>
@@ -2319,16 +2340,16 @@
     <t>Hoàn thành.</t>
   </si>
   <si>
-    <t>|Bicerin, trưởng lão của những kẻ lưu đày, đã giao cho bạn nhiệm vụ đưa Duponne trở về từ Đền Thờ Chìm của Lurie.</t>
-  </si>
-  <si>
-    <t>|Bạn đã tìm thấy Duponne, nay đã hóa thành rồng, sâu trong Đền Thờ Chìm của Lurie. Đưa cô ấy trở về giờ đây dường như là điều không thể, trừ khi còn có cách nào khác.</t>
-  </si>
-  <si>
-    <t>|Nhiệm vụ do Bicerin giao đã hoàn thành. Đã đến lúc quay về Làng Lưu Đày để báo cáo cho ông ấy.</t>
-  </si>
-  <si>
-    <t>|Hãy chờ Kettle trở về. (Còn tiếp)</t>
+    <t>Mọi người, tập hợp lại đi nào. | Chúng ta cần nghĩ cách đối phó với Issizzle.</t>
+  </si>
+  <si>
+    <t>| Hãy đợi Kettle trở về.</t>
+  </si>
+  <si>
+    <t>| Có vẻ như bạn phải ném một loại chất lỏng nào đó vào ‘Dòng nước tù đọng’ ở tận cùng sâu nhất của Hầm mộ Kẻ Bị Nguyền. (còn tiếp)</t>
+  </si>
+  <si>
+    <t>| Ngươi đã hoàn tất công việc ở Làng Chuộc Tội. Hãy chờ Kettle quay về.</t>
   </si>
 </sst>
 </file>
@@ -2686,11 +2707,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N139"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2742,12 +2764,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2759,7 +2781,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2768,12 +2790,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2785,7 +2807,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2794,15 +2816,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2811,12 +2833,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2828,7 +2850,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2837,12 +2859,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2854,7 +2876,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2863,15 +2885,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2880,15 +2902,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F9" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2897,12 +2919,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2914,7 +2936,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2923,15 +2945,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F11" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2940,12 +2962,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -2957,7 +2979,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -2966,7 +2988,7 @@
         <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
@@ -2975,12 +2997,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -2992,7 +3014,7 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -3001,7 +3023,7 @@
         <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -3010,12 +3032,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -3027,7 +3049,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -3036,12 +3058,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -3053,7 +3075,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -3062,12 +3084,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -3079,7 +3101,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -3088,12 +3110,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
@@ -3105,40 +3127,40 @@
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F18" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
@@ -3150,7 +3172,7 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -3159,20 +3181,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
@@ -3184,7 +3206,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3193,15 +3215,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F23" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G23" t="s">
         <v>100</v>
@@ -3210,15 +3232,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F24" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
@@ -3227,20 +3249,20 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
@@ -3252,7 +3274,7 @@
         <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -3261,20 +3283,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C28" t="s">
         <v>113</v>
@@ -3286,7 +3308,7 @@
         <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -3295,12 +3317,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -3312,7 +3334,7 @@
         <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3321,12 +3343,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C30" t="s">
         <v>120</v>
@@ -3338,7 +3360,7 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G30" t="s">
         <v>122</v>
@@ -3347,15 +3369,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F31" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G31" t="s">
         <v>125</v>
@@ -3364,20 +3386,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C33" t="s">
         <v>129</v>
@@ -3389,7 +3411,7 @@
         <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G33" t="s">
         <v>131</v>
@@ -3398,15 +3420,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F34" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G34" t="s">
         <v>134</v>
@@ -3415,15 +3437,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F35" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G35" t="s">
         <v>137</v>
@@ -3432,20 +3454,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
         <v>141</v>
@@ -3457,7 +3479,7 @@
         <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G37" t="s">
         <v>143</v>
@@ -3466,15 +3488,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F38" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
@@ -3483,20 +3505,20 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C40" t="s">
         <v>150</v>
@@ -3508,7 +3530,7 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -3517,20 +3539,20 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C42" t="s">
         <v>156</v>
@@ -3542,7 +3564,7 @@
         <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -3551,15 +3573,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F43" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G43" t="s">
         <v>161</v>
@@ -3568,15 +3590,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F44" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G44" t="s">
         <v>164</v>
@@ -3585,15 +3607,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F45" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G45" t="s">
         <v>167</v>
@@ -3602,15 +3624,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F46" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G46" t="s">
         <v>167</v>
@@ -3619,15 +3641,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F47" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3636,20 +3658,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C49" t="s">
         <v>175</v>
@@ -3661,7 +3683,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3670,12 +3692,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
         <v>180</v>
@@ -3687,7 +3709,7 @@
         <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G50" t="s">
         <v>182</v>
@@ -3696,20 +3718,20 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C52" t="s">
         <v>186</v>
@@ -3721,7 +3743,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3730,20 +3752,20 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C54" t="s">
         <v>192</v>
@@ -3755,7 +3777,7 @@
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G54" t="s">
         <v>194</v>
@@ -3764,12 +3786,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C55" t="s">
         <v>197</v>
@@ -3781,7 +3803,7 @@
         <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G55" t="s">
         <v>199</v>
@@ -3790,12 +3812,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C56" t="s">
         <v>202</v>
@@ -3807,7 +3829,7 @@
         <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G56" t="s">
         <v>204</v>
@@ -3816,12 +3838,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C57" t="s">
         <v>207</v>
@@ -3833,7 +3855,7 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
@@ -3842,12 +3864,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C58" t="s">
         <v>212</v>
@@ -3868,12 +3890,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C59" t="s">
         <v>217</v>
@@ -3885,7 +3907,7 @@
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G59" t="s">
         <v>219</v>
@@ -3894,12 +3916,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C60" t="s">
         <v>222</v>
@@ -3911,7 +3933,7 @@
         <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -3920,12 +3942,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C61" t="s">
         <v>227</v>
@@ -3937,7 +3959,7 @@
         <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G61" t="s">
         <v>229</v>
@@ -3946,15 +3968,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F62" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -3963,15 +3985,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F63" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -3980,15 +4002,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F64" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G64" t="s">
         <v>238</v>
@@ -3997,15 +4019,15 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F65" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G65" t="s">
         <v>241</v>
@@ -4014,15 +4036,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>243</v>
       </c>
       <c r="B66" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F66" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G66" t="s">
         <v>244</v>
@@ -4031,15 +4053,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F67" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G67" t="s">
         <v>247</v>
@@ -4048,15 +4070,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F68" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="G68" t="s">
         <v>250</v>
@@ -4065,15 +4087,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F69" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G69" t="s">
         <v>253</v>
@@ -4082,15 +4104,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -4127,12 +4149,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C73" t="s">
         <v>262</v>
@@ -4144,7 +4166,7 @@
         <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G73" t="s">
         <v>264</v>
@@ -4153,12 +4175,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C74" t="s">
         <v>267</v>
@@ -4179,12 +4201,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C75" t="s">
         <v>272</v>
@@ -4196,7 +4218,7 @@
         <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="G75" t="s">
         <v>274</v>
@@ -4205,12 +4227,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C76" t="s">
         <v>277</v>
@@ -4222,7 +4244,7 @@
         <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G76" t="s">
         <v>279</v>
@@ -4231,12 +4253,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C77" t="s">
         <v>282</v>
@@ -4248,7 +4270,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4257,23 +4279,23 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C79" t="s">
         <v>289</v>
@@ -4285,7 +4307,7 @@
         <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G79" t="s">
         <v>291</v>
@@ -4294,12 +4316,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C80" t="s">
         <v>294</v>
@@ -4311,7 +4333,7 @@
         <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G80" t="s">
         <v>296</v>
@@ -4320,12 +4342,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C81" t="s">
         <v>299</v>
@@ -4337,7 +4359,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4346,12 +4368,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C82" t="s">
         <v>304</v>
@@ -4363,7 +4385,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G82" t="s">
         <v>224</v>
@@ -4372,12 +4394,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C83" t="s">
         <v>307</v>
@@ -4389,7 +4411,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4403,7 +4425,7 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>563</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>312</v>
@@ -4415,7 +4437,7 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4429,10 +4451,10 @@
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>563</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4446,228 +4468,204 @@
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>570</v>
-      </c>
-      <c r="C86" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" t="s">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="G86" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H86" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H87" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="G88" t="s">
+        <v>322</v>
+      </c>
+      <c r="H88" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" t="s">
+        <v>576</v>
+      </c>
+      <c r="C89" t="s">
+        <v>325</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" t="s">
+        <v>649</v>
+      </c>
+      <c r="G89" t="s">
+        <v>327</v>
+      </c>
+      <c r="H89" t="s">
         <v>328</v>
       </c>
-      <c r="H88" t="s">
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>572</v>
+      </c>
+      <c r="F90" t="s">
+        <v>650</v>
+      </c>
+      <c r="G90" t="s">
         <v>330</v>
       </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" t="s">
-        <v>691</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H90" t="s">
         <v>331</v>
       </c>
-      <c r="H89" t="s">
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>572</v>
+      </c>
+      <c r="F91" t="s">
+        <v>651</v>
+      </c>
+      <c r="G91" t="s">
         <v>333</v>
       </c>
-      <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>692</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H91" t="s">
         <v>334</v>
       </c>
-      <c r="H90" t="s">
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>572</v>
+      </c>
+      <c r="F92" t="s">
+        <v>652</v>
+      </c>
+      <c r="G92" t="s">
         <v>336</v>
       </c>
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
-        <v>693</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H92" t="s">
         <v>337</v>
       </c>
-      <c r="H91" t="s">
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B93" t="s">
+        <v>572</v>
+      </c>
+      <c r="F93" t="s">
+        <v>653</v>
+      </c>
+      <c r="G93" t="s">
         <v>339</v>
       </c>
-      <c r="B92" t="s">
-        <v>563</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="H93" t="s">
         <v>340</v>
-      </c>
-      <c r="D92" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" t="s">
-        <v>341</v>
-      </c>
-      <c r="F92" t="s">
-        <v>647</v>
-      </c>
-      <c r="G92" t="s">
-        <v>342</v>
-      </c>
-      <c r="H92" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>344</v>
-      </c>
-      <c r="B93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93" t="s">
-        <v>346</v>
-      </c>
-      <c r="F93" t="s">
-        <v>269</v>
-      </c>
-      <c r="G93" t="s">
-        <v>269</v>
-      </c>
-      <c r="H93" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>700</v>
+      </c>
+      <c r="G94" t="s">
+        <v>342</v>
+      </c>
+      <c r="H94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" t="s">
+        <v>654</v>
+      </c>
+      <c r="G95" t="s">
         <v>347</v>
       </c>
-      <c r="B94" t="s">
-        <v>560</v>
-      </c>
-      <c r="C94" t="s">
-        <v>345</v>
-      </c>
-      <c r="D94" t="s">
-        <v>345</v>
-      </c>
-      <c r="E94" t="s">
-        <v>346</v>
-      </c>
-      <c r="F94" t="s">
-        <v>269</v>
-      </c>
-      <c r="G94" t="s">
-        <v>269</v>
-      </c>
-      <c r="H94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="H95" t="s">
         <v>348</v>
       </c>
-      <c r="B95" t="s">
-        <v>560</v>
-      </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>349</v>
       </c>
-      <c r="D95" t="s">
-        <v>349</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="B96" t="s">
+        <v>565</v>
+      </c>
+      <c r="C96" t="s">
         <v>350</v>
       </c>
-      <c r="F95" t="s">
-        <v>648</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="D96" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>352</v>
-      </c>
-      <c r="B96" t="s">
-        <v>571</v>
-      </c>
-      <c r="C96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" t="s">
-        <v>353</v>
-      </c>
-      <c r="E96" t="s">
-        <v>354</v>
       </c>
       <c r="F96" t="s">
         <v>269</v>
@@ -4679,1090 +4677,1171 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>565</v>
+      </c>
+      <c r="C97" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" t="s">
+        <v>350</v>
+      </c>
+      <c r="E97" t="s">
+        <v>351</v>
+      </c>
+      <c r="F97" t="s">
+        <v>269</v>
+      </c>
+      <c r="G97" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" t="s">
+        <v>565</v>
+      </c>
+      <c r="C98" t="s">
+        <v>354</v>
+      </c>
+      <c r="D98" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" t="s">
         <v>355</v>
       </c>
-      <c r="B97" t="s">
-        <v>572</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="F98" t="s">
+        <v>655</v>
+      </c>
+      <c r="H98" t="s">
         <v>356</v>
       </c>
-      <c r="D97" t="s">
-        <v>356</v>
-      </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>357</v>
       </c>
-      <c r="F97" t="s">
+      <c r="B99" t="s">
+        <v>577</v>
+      </c>
+      <c r="C99" t="s">
         <v>358</v>
       </c>
-      <c r="G97" t="s">
+      <c r="D99" t="s">
         <v>358</v>
       </c>
-      <c r="H97" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="E99" t="s">
         <v>359</v>
       </c>
-      <c r="B98" t="s">
-        <v>572</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="F99" t="s">
+        <v>269</v>
+      </c>
+      <c r="G99" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>360</v>
       </c>
-      <c r="D98" t="s">
-        <v>360</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="B100" t="s">
+        <v>578</v>
+      </c>
+      <c r="C100" t="s">
         <v>361</v>
       </c>
-      <c r="F98" t="s">
-        <v>358</v>
-      </c>
-      <c r="G98" t="s">
-        <v>358</v>
-      </c>
-      <c r="H98" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="D100" t="s">
+        <v>361</v>
+      </c>
+      <c r="E100" t="s">
         <v>362</v>
       </c>
-      <c r="B99" t="s">
-        <v>572</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="F100" t="s">
         <v>363</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G100" t="s">
         <v>363</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>364</v>
       </c>
-      <c r="F99" t="s">
-        <v>358</v>
-      </c>
-      <c r="G99" t="s">
-        <v>358</v>
-      </c>
-      <c r="H99" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
+        <v>578</v>
+      </c>
+      <c r="C101" t="s">
         <v>365</v>
       </c>
-      <c r="B100" t="s">
-        <v>572</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D101" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101" t="s">
         <v>366</v>
       </c>
-      <c r="D100" t="s">
-        <v>366</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F101" t="s">
+        <v>363</v>
+      </c>
+      <c r="G101" t="s">
+        <v>363</v>
+      </c>
+      <c r="H101" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>367</v>
       </c>
-      <c r="F100" t="s">
-        <v>358</v>
-      </c>
-      <c r="G100" t="s">
-        <v>358</v>
-      </c>
-      <c r="H100" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
+        <v>578</v>
+      </c>
+      <c r="C102" t="s">
         <v>368</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D102" t="s">
+        <v>368</v>
+      </c>
+      <c r="E102" t="s">
+        <v>369</v>
+      </c>
+      <c r="F102" t="s">
+        <v>363</v>
+      </c>
+      <c r="G102" t="s">
+        <v>363</v>
+      </c>
+      <c r="H102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>370</v>
+      </c>
+      <c r="B103" t="s">
+        <v>578</v>
+      </c>
+      <c r="C103" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" t="s">
+        <v>371</v>
+      </c>
+      <c r="E103" t="s">
+        <v>372</v>
+      </c>
+      <c r="F103" t="s">
+        <v>363</v>
+      </c>
+      <c r="G103" t="s">
+        <v>363</v>
+      </c>
+      <c r="H103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" t="s">
+        <v>557</v>
+      </c>
+      <c r="C104" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" t="s">
+        <v>374</v>
+      </c>
+      <c r="E104" t="s">
+        <v>375</v>
+      </c>
+      <c r="F104" t="s">
+        <v>656</v>
+      </c>
+      <c r="G104" t="s">
+        <v>376</v>
+      </c>
+      <c r="H104" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>378</v>
+      </c>
+      <c r="B105" t="s">
+        <v>557</v>
+      </c>
+      <c r="F105" t="s">
+        <v>657</v>
+      </c>
+      <c r="G105" t="s">
+        <v>379</v>
+      </c>
+      <c r="H105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>381</v>
+      </c>
+      <c r="B106" t="s">
+        <v>565</v>
+      </c>
+      <c r="C106" t="s">
+        <v>382</v>
+      </c>
+      <c r="D106" t="s">
+        <v>382</v>
+      </c>
+      <c r="E106" t="s">
+        <v>383</v>
+      </c>
+      <c r="F106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G106" t="s">
+        <v>384</v>
+      </c>
+      <c r="H106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>386</v>
+      </c>
+      <c r="B107" t="s">
+        <v>557</v>
+      </c>
+      <c r="C107" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" t="s">
+        <v>387</v>
+      </c>
+      <c r="E107" t="s">
+        <v>388</v>
+      </c>
+      <c r="F107" t="s">
+        <v>659</v>
+      </c>
+      <c r="G107" t="s">
+        <v>389</v>
+      </c>
+      <c r="H107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>557</v>
+      </c>
+      <c r="F108" t="s">
+        <v>660</v>
+      </c>
+      <c r="G108" t="s">
+        <v>392</v>
+      </c>
+      <c r="H108" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
+        <v>565</v>
+      </c>
+      <c r="C109" t="s">
+        <v>395</v>
+      </c>
+      <c r="D109" t="s">
+        <v>395</v>
+      </c>
+      <c r="E109" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" t="s">
+        <v>661</v>
+      </c>
+      <c r="G109" t="s">
+        <v>397</v>
+      </c>
+      <c r="H109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" t="s">
+        <v>557</v>
+      </c>
+      <c r="C110" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" t="s">
+        <v>400</v>
+      </c>
+      <c r="E110" t="s">
+        <v>401</v>
+      </c>
+      <c r="F110" t="s">
+        <v>662</v>
+      </c>
+      <c r="G110" t="s">
+        <v>402</v>
+      </c>
+      <c r="H110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" t="s">
+        <v>557</v>
+      </c>
+      <c r="F111" t="s">
+        <v>663</v>
+      </c>
+      <c r="G111" t="s">
+        <v>405</v>
+      </c>
+      <c r="H111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>407</v>
+      </c>
+      <c r="B112" t="s">
+        <v>565</v>
+      </c>
+      <c r="C112" t="s">
+        <v>408</v>
+      </c>
+      <c r="D112" t="s">
+        <v>408</v>
+      </c>
+      <c r="E112" t="s">
+        <v>409</v>
+      </c>
+      <c r="F112" t="s">
+        <v>664</v>
+      </c>
+      <c r="G112" t="s">
+        <v>410</v>
+      </c>
+      <c r="H112" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>412</v>
+      </c>
+      <c r="B113" t="s">
+        <v>579</v>
+      </c>
+      <c r="C113" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" t="s">
+        <v>413</v>
+      </c>
+      <c r="E113" t="s">
+        <v>414</v>
+      </c>
+      <c r="F113" t="s">
+        <v>665</v>
+      </c>
+      <c r="G113" t="s">
+        <v>415</v>
+      </c>
+      <c r="H113" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>417</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="F114" t="s">
+        <v>666</v>
+      </c>
+      <c r="G114" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" t="s">
+        <v>565</v>
+      </c>
+      <c r="C115" t="s">
+        <v>421</v>
+      </c>
+      <c r="D115" t="s">
+        <v>421</v>
+      </c>
+      <c r="E115" t="s">
+        <v>422</v>
+      </c>
+      <c r="F115" t="s">
+        <v>667</v>
+      </c>
+      <c r="G115" t="s">
+        <v>423</v>
+      </c>
+      <c r="H115" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" t="s">
+        <v>565</v>
+      </c>
+      <c r="C116" t="s">
+        <v>426</v>
+      </c>
+      <c r="D116" t="s">
+        <v>426</v>
+      </c>
+      <c r="E116" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" t="s">
+        <v>668</v>
+      </c>
+      <c r="G116" t="s">
+        <v>428</v>
+      </c>
+      <c r="H116" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" t="s">
+        <v>581</v>
+      </c>
+      <c r="C117" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" t="s">
+        <v>431</v>
+      </c>
+      <c r="E117" t="s">
+        <v>432</v>
+      </c>
+      <c r="F117" t="s">
+        <v>669</v>
+      </c>
+      <c r="G117" t="s">
+        <v>433</v>
+      </c>
+      <c r="H117" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>435</v>
+      </c>
+      <c r="B118" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" t="s">
+        <v>436</v>
+      </c>
+      <c r="D118" t="s">
+        <v>436</v>
+      </c>
+      <c r="E118" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" t="s">
+        <v>670</v>
+      </c>
+      <c r="G118" t="s">
+        <v>438</v>
+      </c>
+      <c r="H118" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>440</v>
+      </c>
+      <c r="B119" t="s">
+        <v>565</v>
+      </c>
+      <c r="C119" t="s">
+        <v>441</v>
+      </c>
+      <c r="D119" t="s">
+        <v>441</v>
+      </c>
+      <c r="E119" t="s">
+        <v>442</v>
+      </c>
+      <c r="F119" t="s">
+        <v>671</v>
+      </c>
+      <c r="G119" t="s">
+        <v>443</v>
+      </c>
+      <c r="H119" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" t="s">
+        <v>582</v>
+      </c>
+      <c r="C120" t="s">
+        <v>446</v>
+      </c>
+      <c r="D120" t="s">
+        <v>446</v>
+      </c>
+      <c r="E120" t="s">
+        <v>447</v>
+      </c>
+      <c r="F120" t="s">
+        <v>672</v>
+      </c>
+      <c r="G120" t="s">
+        <v>448</v>
+      </c>
+      <c r="H120" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>450</v>
+      </c>
+      <c r="B121" t="s">
+        <v>583</v>
+      </c>
+      <c r="C121" t="s">
+        <v>451</v>
+      </c>
+      <c r="D121" t="s">
+        <v>451</v>
+      </c>
+      <c r="E121" t="s">
+        <v>452</v>
+      </c>
+      <c r="F121" t="s">
+        <v>673</v>
+      </c>
+      <c r="G121" t="s">
+        <v>453</v>
+      </c>
+      <c r="H121" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>455</v>
+      </c>
+      <c r="B122" t="s">
+        <v>565</v>
+      </c>
+      <c r="C122" t="s">
+        <v>456</v>
+      </c>
+      <c r="D122" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" t="s">
+        <v>457</v>
+      </c>
+      <c r="F122" t="s">
+        <v>674</v>
+      </c>
+      <c r="G122" t="s">
+        <v>458</v>
+      </c>
+      <c r="H122" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>460</v>
+      </c>
+      <c r="B123" t="s">
+        <v>565</v>
+      </c>
+      <c r="C123" t="s">
+        <v>461</v>
+      </c>
+      <c r="D123" t="s">
+        <v>461</v>
+      </c>
+      <c r="E123" t="s">
+        <v>462</v>
+      </c>
+      <c r="F123" t="s">
+        <v>675</v>
+      </c>
+      <c r="G123" t="s">
+        <v>463</v>
+      </c>
+      <c r="H123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>465</v>
+      </c>
+      <c r="B124" t="s">
+        <v>565</v>
+      </c>
+      <c r="C124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D124" t="s">
+        <v>466</v>
+      </c>
+      <c r="E124" t="s">
+        <v>467</v>
+      </c>
+      <c r="F124" t="s">
+        <v>676</v>
+      </c>
+      <c r="G124" t="s">
+        <v>468</v>
+      </c>
+      <c r="H124" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>470</v>
+      </c>
+      <c r="B125" t="s">
+        <v>565</v>
+      </c>
+      <c r="C125" t="s">
+        <v>471</v>
+      </c>
+      <c r="D125" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" t="s">
+        <v>472</v>
+      </c>
+      <c r="F125" t="s">
+        <v>677</v>
+      </c>
+      <c r="G125" t="s">
+        <v>473</v>
+      </c>
+      <c r="H125" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>475</v>
+      </c>
+      <c r="B126" t="s">
+        <v>568</v>
+      </c>
+      <c r="C126" t="s">
+        <v>476</v>
+      </c>
+      <c r="D126" t="s">
+        <v>476</v>
+      </c>
+      <c r="E126" t="s">
+        <v>477</v>
+      </c>
+      <c r="F126" t="s">
+        <v>678</v>
+      </c>
+      <c r="G126" t="s">
+        <v>478</v>
+      </c>
+      <c r="H126" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" t="s">
+        <v>565</v>
+      </c>
+      <c r="C127" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" t="s">
+        <v>481</v>
+      </c>
+      <c r="E127" t="s">
+        <v>482</v>
+      </c>
+      <c r="F127" t="s">
+        <v>679</v>
+      </c>
+      <c r="G127" t="s">
+        <v>483</v>
+      </c>
+      <c r="H127" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>485</v>
+      </c>
+      <c r="B128" t="s">
+        <v>565</v>
+      </c>
+      <c r="C128" t="s">
+        <v>486</v>
+      </c>
+      <c r="D128" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" t="s">
+        <v>487</v>
+      </c>
+      <c r="F128" t="s">
+        <v>680</v>
+      </c>
+      <c r="G128" t="s">
+        <v>488</v>
+      </c>
+      <c r="H128" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>490</v>
+      </c>
+      <c r="B129" t="s">
+        <v>565</v>
+      </c>
+      <c r="C129" t="s">
+        <v>491</v>
+      </c>
+      <c r="D129" t="s">
+        <v>491</v>
+      </c>
+      <c r="E129" t="s">
+        <v>492</v>
+      </c>
+      <c r="F129" t="s">
+        <v>681</v>
+      </c>
+      <c r="G129" t="s">
+        <v>493</v>
+      </c>
+      <c r="H129" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" t="s">
+        <v>496</v>
+      </c>
+      <c r="D130" t="s">
+        <v>496</v>
+      </c>
+      <c r="E130" t="s">
+        <v>497</v>
+      </c>
+      <c r="F130" t="s">
+        <v>682</v>
+      </c>
+      <c r="G130" t="s">
+        <v>498</v>
+      </c>
+      <c r="H130" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>500</v>
+      </c>
+      <c r="B131" t="s">
+        <v>565</v>
+      </c>
+      <c r="C131" t="s">
+        <v>501</v>
+      </c>
+      <c r="D131" t="s">
+        <v>501</v>
+      </c>
+      <c r="E131" t="s">
+        <v>502</v>
+      </c>
+      <c r="F131" t="s">
+        <v>683</v>
+      </c>
+      <c r="G131" t="s">
+        <v>503</v>
+      </c>
+      <c r="H131" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>505</v>
+      </c>
+      <c r="B132" t="s">
+        <v>565</v>
+      </c>
+      <c r="C132" t="s">
+        <v>506</v>
+      </c>
+      <c r="D132" t="s">
+        <v>506</v>
+      </c>
+      <c r="E132" t="s">
+        <v>507</v>
+      </c>
+      <c r="F132" t="s">
+        <v>684</v>
+      </c>
+      <c r="G132" t="s">
+        <v>508</v>
+      </c>
+      <c r="H132" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>510</v>
+      </c>
+      <c r="B133" t="s">
+        <v>565</v>
+      </c>
+      <c r="C133" t="s">
+        <v>511</v>
+      </c>
+      <c r="D133" t="s">
+        <v>511</v>
+      </c>
+      <c r="E133" t="s">
+        <v>512</v>
+      </c>
+      <c r="F133" t="s">
+        <v>685</v>
+      </c>
+      <c r="G133" t="s">
+        <v>513</v>
+      </c>
+      <c r="H133" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>515</v>
+      </c>
+      <c r="B134" t="s">
+        <v>565</v>
+      </c>
+      <c r="C134" t="s">
+        <v>511</v>
+      </c>
+      <c r="D134" t="s">
+        <v>511</v>
+      </c>
+      <c r="E134" t="s">
+        <v>512</v>
+      </c>
+      <c r="F134" t="s">
+        <v>686</v>
+      </c>
+      <c r="G134" t="s">
+        <v>513</v>
+      </c>
+      <c r="H134" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>517</v>
+      </c>
+      <c r="B135" t="s">
+        <v>565</v>
+      </c>
+      <c r="C135" t="s">
+        <v>518</v>
+      </c>
+      <c r="D135" t="s">
+        <v>518</v>
+      </c>
+      <c r="E135" t="s">
+        <v>519</v>
+      </c>
+      <c r="F135" t="s">
+        <v>687</v>
+      </c>
+      <c r="G135" t="s">
+        <v>520</v>
+      </c>
+      <c r="H135" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>522</v>
+      </c>
+      <c r="B136" t="s">
+        <v>565</v>
+      </c>
+      <c r="C136" t="s">
+        <v>523</v>
+      </c>
+      <c r="D136" t="s">
+        <v>523</v>
+      </c>
+      <c r="E136" t="s">
+        <v>524</v>
+      </c>
+      <c r="F136" t="s">
+        <v>688</v>
+      </c>
+      <c r="G136" t="s">
+        <v>525</v>
+      </c>
+      <c r="H136" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" t="s">
+        <v>565</v>
+      </c>
+      <c r="C137" t="s">
+        <v>528</v>
+      </c>
+      <c r="D137" t="s">
+        <v>528</v>
+      </c>
+      <c r="E137" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" t="s">
+        <v>689</v>
+      </c>
+      <c r="G137" t="s">
+        <v>530</v>
+      </c>
+      <c r="H137" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>532</v>
+      </c>
+      <c r="B138" t="s">
+        <v>565</v>
+      </c>
+      <c r="C138" t="s">
+        <v>533</v>
+      </c>
+      <c r="D138" t="s">
+        <v>533</v>
+      </c>
+      <c r="E138" t="s">
+        <v>534</v>
+      </c>
+      <c r="F138" t="s">
+        <v>690</v>
+      </c>
+      <c r="G138" t="s">
+        <v>535</v>
+      </c>
+      <c r="H138" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>537</v>
+      </c>
+      <c r="B139" t="s">
+        <v>565</v>
+      </c>
+      <c r="C139" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" t="s">
+        <v>538</v>
+      </c>
+      <c r="E139" t="s">
+        <v>539</v>
+      </c>
+      <c r="F139" t="s">
+        <v>691</v>
+      </c>
+      <c r="G139" t="s">
+        <v>540</v>
+      </c>
+      <c r="H139" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>542</v>
+      </c>
+      <c r="B140" t="s">
+        <v>584</v>
+      </c>
+      <c r="C140" t="s">
+        <v>543</v>
+      </c>
+      <c r="D140" t="s">
+        <v>543</v>
+      </c>
+      <c r="E140" t="s">
+        <v>544</v>
+      </c>
+      <c r="F140" t="s">
+        <v>692</v>
+      </c>
+      <c r="G140" t="s">
+        <v>545</v>
+      </c>
+      <c r="H140" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" t="s">
+        <v>585</v>
+      </c>
+      <c r="C141" t="s">
+        <v>548</v>
+      </c>
+      <c r="D141" t="s">
+        <v>548</v>
+      </c>
+      <c r="E141" t="s">
+        <v>549</v>
+      </c>
+      <c r="F141" t="s">
+        <v>693</v>
+      </c>
+      <c r="G141" t="s">
+        <v>550</v>
+      </c>
+      <c r="H141" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>552</v>
       </c>
-      <c r="C101" t="s">
-        <v>369</v>
-      </c>
-      <c r="D101" t="s">
-        <v>369</v>
-      </c>
-      <c r="E101" t="s">
-        <v>370</v>
-      </c>
-      <c r="F101" t="s">
-        <v>649</v>
-      </c>
-      <c r="G101" t="s">
-        <v>371</v>
-      </c>
-      <c r="H101" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>373</v>
-      </c>
-      <c r="B102" t="s">
-        <v>552</v>
-      </c>
-      <c r="F102" t="s">
-        <v>650</v>
-      </c>
-      <c r="G102" t="s">
-        <v>374</v>
-      </c>
-      <c r="H102" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>376</v>
-      </c>
-      <c r="B103" t="s">
-        <v>560</v>
-      </c>
-      <c r="C103" t="s">
-        <v>377</v>
-      </c>
-      <c r="D103" t="s">
-        <v>377</v>
-      </c>
-      <c r="E103" t="s">
-        <v>378</v>
-      </c>
-      <c r="F103" t="s">
-        <v>651</v>
-      </c>
-      <c r="G103" t="s">
-        <v>379</v>
-      </c>
-      <c r="H103" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" t="s">
-        <v>552</v>
-      </c>
-      <c r="C104" t="s">
-        <v>382</v>
-      </c>
-      <c r="D104" t="s">
-        <v>382</v>
-      </c>
-      <c r="E104" t="s">
-        <v>383</v>
-      </c>
-      <c r="F104" t="s">
-        <v>652</v>
-      </c>
-      <c r="G104" t="s">
-        <v>384</v>
-      </c>
-      <c r="H104" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>386</v>
-      </c>
-      <c r="B105" t="s">
-        <v>552</v>
-      </c>
-      <c r="F105" t="s">
-        <v>653</v>
-      </c>
-      <c r="G105" t="s">
-        <v>387</v>
-      </c>
-      <c r="H105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>389</v>
-      </c>
-      <c r="B106" t="s">
-        <v>560</v>
-      </c>
-      <c r="C106" t="s">
-        <v>390</v>
-      </c>
-      <c r="D106" t="s">
-        <v>390</v>
-      </c>
-      <c r="E106" t="s">
-        <v>391</v>
-      </c>
-      <c r="F106" t="s">
-        <v>654</v>
-      </c>
-      <c r="G106" t="s">
-        <v>392</v>
-      </c>
-      <c r="H106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>394</v>
-      </c>
-      <c r="B107" t="s">
-        <v>552</v>
-      </c>
-      <c r="C107" t="s">
-        <v>395</v>
-      </c>
-      <c r="D107" t="s">
-        <v>395</v>
-      </c>
-      <c r="E107" t="s">
-        <v>396</v>
-      </c>
-      <c r="F107" t="s">
-        <v>655</v>
-      </c>
-      <c r="G107" t="s">
-        <v>397</v>
-      </c>
-      <c r="H107" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>399</v>
-      </c>
-      <c r="B108" t="s">
-        <v>552</v>
-      </c>
-      <c r="F108" t="s">
-        <v>656</v>
-      </c>
-      <c r="G108" t="s">
-        <v>400</v>
-      </c>
-      <c r="H108" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>402</v>
-      </c>
-      <c r="B109" t="s">
-        <v>560</v>
-      </c>
-      <c r="C109" t="s">
-        <v>403</v>
-      </c>
-      <c r="D109" t="s">
-        <v>403</v>
-      </c>
-      <c r="E109" t="s">
-        <v>404</v>
-      </c>
-      <c r="F109" t="s">
-        <v>657</v>
-      </c>
-      <c r="G109" t="s">
-        <v>405</v>
-      </c>
-      <c r="H109" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>407</v>
-      </c>
-      <c r="B110" t="s">
-        <v>573</v>
-      </c>
-      <c r="C110" t="s">
-        <v>408</v>
-      </c>
-      <c r="D110" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" t="s">
-        <v>409</v>
-      </c>
-      <c r="F110" t="s">
-        <v>658</v>
-      </c>
-      <c r="G110" t="s">
-        <v>410</v>
-      </c>
-      <c r="H110" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>412</v>
-      </c>
-      <c r="B111" t="s">
-        <v>574</v>
-      </c>
-      <c r="F111" t="s">
-        <v>659</v>
-      </c>
-      <c r="G111" t="s">
-        <v>413</v>
-      </c>
-      <c r="H111" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>415</v>
-      </c>
-      <c r="B112" t="s">
-        <v>560</v>
-      </c>
-      <c r="C112" t="s">
-        <v>416</v>
-      </c>
-      <c r="D112" t="s">
-        <v>416</v>
-      </c>
-      <c r="E112" t="s">
-        <v>417</v>
-      </c>
-      <c r="F112" t="s">
-        <v>660</v>
-      </c>
-      <c r="G112" t="s">
-        <v>418</v>
-      </c>
-      <c r="H112" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>420</v>
-      </c>
-      <c r="B113" t="s">
-        <v>560</v>
-      </c>
-      <c r="C113" t="s">
-        <v>421</v>
-      </c>
-      <c r="D113" t="s">
-        <v>421</v>
-      </c>
-      <c r="E113" t="s">
-        <v>422</v>
-      </c>
-      <c r="F113" t="s">
-        <v>661</v>
-      </c>
-      <c r="G113" t="s">
-        <v>423</v>
-      </c>
-      <c r="H113" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>425</v>
-      </c>
-      <c r="B114" t="s">
-        <v>575</v>
-      </c>
-      <c r="C114" t="s">
-        <v>426</v>
-      </c>
-      <c r="D114" t="s">
-        <v>426</v>
-      </c>
-      <c r="E114" t="s">
-        <v>427</v>
-      </c>
-      <c r="F114" t="s">
-        <v>662</v>
-      </c>
-      <c r="G114" t="s">
-        <v>428</v>
-      </c>
-      <c r="H114" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>430</v>
-      </c>
-      <c r="B115" t="s">
-        <v>560</v>
-      </c>
-      <c r="C115" t="s">
-        <v>431</v>
-      </c>
-      <c r="D115" t="s">
-        <v>431</v>
-      </c>
-      <c r="E115" t="s">
-        <v>432</v>
-      </c>
-      <c r="F115" t="s">
-        <v>663</v>
-      </c>
-      <c r="G115" t="s">
-        <v>433</v>
-      </c>
-      <c r="H115" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>435</v>
-      </c>
-      <c r="B116" t="s">
-        <v>560</v>
-      </c>
-      <c r="C116" t="s">
-        <v>436</v>
-      </c>
-      <c r="D116" t="s">
-        <v>436</v>
-      </c>
-      <c r="E116" t="s">
-        <v>437</v>
-      </c>
-      <c r="F116" t="s">
-        <v>664</v>
-      </c>
-      <c r="G116" t="s">
-        <v>438</v>
-      </c>
-      <c r="H116" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>440</v>
-      </c>
-      <c r="B117" t="s">
-        <v>576</v>
-      </c>
-      <c r="C117" t="s">
-        <v>441</v>
-      </c>
-      <c r="D117" t="s">
-        <v>441</v>
-      </c>
-      <c r="E117" t="s">
-        <v>442</v>
-      </c>
-      <c r="F117" t="s">
-        <v>665</v>
-      </c>
-      <c r="G117" t="s">
-        <v>443</v>
-      </c>
-      <c r="H117" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>445</v>
-      </c>
-      <c r="B118" t="s">
-        <v>577</v>
-      </c>
-      <c r="C118" t="s">
-        <v>446</v>
-      </c>
-      <c r="D118" t="s">
-        <v>446</v>
-      </c>
-      <c r="E118" t="s">
-        <v>447</v>
-      </c>
-      <c r="F118" t="s">
-        <v>666</v>
-      </c>
-      <c r="G118" t="s">
-        <v>448</v>
-      </c>
-      <c r="H118" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>450</v>
-      </c>
-      <c r="B119" t="s">
-        <v>560</v>
-      </c>
-      <c r="C119" t="s">
-        <v>451</v>
-      </c>
-      <c r="D119" t="s">
-        <v>451</v>
-      </c>
-      <c r="E119" t="s">
-        <v>452</v>
-      </c>
-      <c r="F119" t="s">
-        <v>667</v>
-      </c>
-      <c r="G119" t="s">
-        <v>453</v>
-      </c>
-      <c r="H119" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>455</v>
-      </c>
-      <c r="B120" t="s">
-        <v>560</v>
-      </c>
-      <c r="C120" t="s">
-        <v>456</v>
-      </c>
-      <c r="D120" t="s">
-        <v>456</v>
-      </c>
-      <c r="E120" t="s">
-        <v>457</v>
-      </c>
-      <c r="F120" t="s">
-        <v>668</v>
-      </c>
-      <c r="G120" t="s">
-        <v>458</v>
-      </c>
-      <c r="H120" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>460</v>
-      </c>
-      <c r="B121" t="s">
-        <v>560</v>
-      </c>
-      <c r="C121" t="s">
-        <v>461</v>
-      </c>
-      <c r="D121" t="s">
-        <v>461</v>
-      </c>
-      <c r="E121" t="s">
-        <v>462</v>
-      </c>
-      <c r="F121" t="s">
-        <v>669</v>
-      </c>
-      <c r="G121" t="s">
-        <v>463</v>
-      </c>
-      <c r="H121" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>465</v>
-      </c>
-      <c r="B122" t="s">
-        <v>560</v>
-      </c>
-      <c r="C122" t="s">
-        <v>466</v>
-      </c>
-      <c r="D122" t="s">
-        <v>466</v>
-      </c>
-      <c r="E122" t="s">
-        <v>467</v>
-      </c>
-      <c r="F122" t="s">
-        <v>670</v>
-      </c>
-      <c r="G122" t="s">
-        <v>468</v>
-      </c>
-      <c r="H122" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>470</v>
-      </c>
-      <c r="B123" t="s">
-        <v>563</v>
-      </c>
-      <c r="C123" t="s">
-        <v>471</v>
-      </c>
-      <c r="D123" t="s">
-        <v>471</v>
-      </c>
-      <c r="E123" t="s">
-        <v>472</v>
-      </c>
-      <c r="F123" t="s">
-        <v>671</v>
-      </c>
-      <c r="G123" t="s">
-        <v>473</v>
-      </c>
-      <c r="H123" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>475</v>
-      </c>
-      <c r="B124" t="s">
-        <v>560</v>
-      </c>
-      <c r="C124" t="s">
-        <v>476</v>
-      </c>
-      <c r="D124" t="s">
-        <v>476</v>
-      </c>
-      <c r="E124" t="s">
-        <v>477</v>
-      </c>
-      <c r="F124" t="s">
-        <v>672</v>
-      </c>
-      <c r="G124" t="s">
-        <v>478</v>
-      </c>
-      <c r="H124" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" t="s">
-        <v>560</v>
-      </c>
-      <c r="C125" t="s">
-        <v>481</v>
-      </c>
-      <c r="D125" t="s">
-        <v>481</v>
-      </c>
-      <c r="E125" t="s">
-        <v>482</v>
-      </c>
-      <c r="F125" t="s">
-        <v>673</v>
-      </c>
-      <c r="G125" t="s">
-        <v>483</v>
-      </c>
-      <c r="H125" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>485</v>
-      </c>
-      <c r="B126" t="s">
-        <v>560</v>
-      </c>
-      <c r="C126" t="s">
-        <v>486</v>
-      </c>
-      <c r="D126" t="s">
-        <v>486</v>
-      </c>
-      <c r="E126" t="s">
-        <v>487</v>
-      </c>
-      <c r="F126" t="s">
-        <v>674</v>
-      </c>
-      <c r="G126" t="s">
-        <v>488</v>
-      </c>
-      <c r="H126" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>490</v>
-      </c>
-      <c r="B127" t="s">
-        <v>560</v>
-      </c>
-      <c r="C127" t="s">
-        <v>491</v>
-      </c>
-      <c r="D127" t="s">
-        <v>491</v>
-      </c>
-      <c r="E127" t="s">
-        <v>492</v>
-      </c>
-      <c r="F127" t="s">
-        <v>675</v>
-      </c>
-      <c r="G127" t="s">
-        <v>493</v>
-      </c>
-      <c r="H127" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>495</v>
-      </c>
-      <c r="B128" t="s">
-        <v>560</v>
-      </c>
-      <c r="C128" t="s">
-        <v>496</v>
-      </c>
-      <c r="D128" t="s">
-        <v>496</v>
-      </c>
-      <c r="E128" t="s">
-        <v>497</v>
-      </c>
-      <c r="F128" t="s">
-        <v>676</v>
-      </c>
-      <c r="G128" t="s">
-        <v>498</v>
-      </c>
-      <c r="H128" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>500</v>
-      </c>
-      <c r="B129" t="s">
-        <v>560</v>
-      </c>
-      <c r="C129" t="s">
-        <v>501</v>
-      </c>
-      <c r="D129" t="s">
-        <v>501</v>
-      </c>
-      <c r="E129" t="s">
-        <v>502</v>
-      </c>
-      <c r="F129" t="s">
-        <v>677</v>
-      </c>
-      <c r="G129" t="s">
-        <v>503</v>
-      </c>
-      <c r="H129" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>505</v>
-      </c>
-      <c r="B130" t="s">
-        <v>560</v>
-      </c>
-      <c r="C130" t="s">
-        <v>506</v>
-      </c>
-      <c r="D130" t="s">
-        <v>506</v>
-      </c>
-      <c r="E130" t="s">
-        <v>507</v>
-      </c>
-      <c r="F130" t="s">
-        <v>678</v>
-      </c>
-      <c r="G130" t="s">
-        <v>508</v>
-      </c>
-      <c r="H130" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>510</v>
-      </c>
-      <c r="B131" t="s">
-        <v>560</v>
-      </c>
-      <c r="C131" t="s">
-        <v>506</v>
-      </c>
-      <c r="D131" t="s">
-        <v>506</v>
-      </c>
-      <c r="E131" t="s">
-        <v>507</v>
-      </c>
-      <c r="F131" t="s">
-        <v>679</v>
-      </c>
-      <c r="G131" t="s">
-        <v>508</v>
-      </c>
-      <c r="H131" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>512</v>
-      </c>
-      <c r="B132" t="s">
-        <v>560</v>
-      </c>
-      <c r="C132" t="s">
-        <v>513</v>
-      </c>
-      <c r="D132" t="s">
-        <v>513</v>
-      </c>
-      <c r="E132" t="s">
-        <v>514</v>
-      </c>
-      <c r="F132" t="s">
-        <v>680</v>
-      </c>
-      <c r="G132" t="s">
-        <v>515</v>
-      </c>
-      <c r="H132" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>517</v>
-      </c>
-      <c r="B133" t="s">
-        <v>560</v>
-      </c>
-      <c r="C133" t="s">
-        <v>518</v>
-      </c>
-      <c r="D133" t="s">
-        <v>518</v>
-      </c>
-      <c r="E133" t="s">
-        <v>519</v>
-      </c>
-      <c r="F133" t="s">
-        <v>681</v>
-      </c>
-      <c r="G133" t="s">
-        <v>520</v>
-      </c>
-      <c r="H133" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>522</v>
-      </c>
-      <c r="B134" t="s">
-        <v>560</v>
-      </c>
-      <c r="C134" t="s">
-        <v>523</v>
-      </c>
-      <c r="D134" t="s">
-        <v>523</v>
-      </c>
-      <c r="E134" t="s">
-        <v>524</v>
-      </c>
-      <c r="F134" t="s">
-        <v>682</v>
-      </c>
-      <c r="G134" t="s">
-        <v>525</v>
-      </c>
-      <c r="H134" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>527</v>
-      </c>
-      <c r="B135" t="s">
-        <v>560</v>
-      </c>
-      <c r="C135" t="s">
-        <v>528</v>
-      </c>
-      <c r="D135" t="s">
-        <v>528</v>
-      </c>
-      <c r="E135" t="s">
-        <v>529</v>
-      </c>
-      <c r="F135" t="s">
-        <v>683</v>
-      </c>
-      <c r="G135" t="s">
-        <v>530</v>
-      </c>
-      <c r="H135" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>532</v>
-      </c>
-      <c r="B136" t="s">
-        <v>560</v>
-      </c>
-      <c r="C136" t="s">
-        <v>533</v>
-      </c>
-      <c r="D136" t="s">
-        <v>533</v>
-      </c>
-      <c r="E136" t="s">
-        <v>534</v>
-      </c>
-      <c r="F136" t="s">
-        <v>684</v>
-      </c>
-      <c r="G136" t="s">
-        <v>535</v>
-      </c>
-      <c r="H136" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>537</v>
-      </c>
-      <c r="B137" t="s">
-        <v>578</v>
-      </c>
-      <c r="C137" t="s">
-        <v>538</v>
-      </c>
-      <c r="D137" t="s">
-        <v>538</v>
-      </c>
-      <c r="E137" t="s">
-        <v>539</v>
-      </c>
-      <c r="F137" t="s">
-        <v>685</v>
-      </c>
-      <c r="G137" t="s">
-        <v>540</v>
-      </c>
-      <c r="H137" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>542</v>
-      </c>
-      <c r="B138" t="s">
-        <v>579</v>
-      </c>
-      <c r="C138" t="s">
-        <v>543</v>
-      </c>
-      <c r="D138" t="s">
-        <v>543</v>
-      </c>
-      <c r="E138" t="s">
-        <v>544</v>
-      </c>
-      <c r="F138" t="s">
-        <v>686</v>
-      </c>
-      <c r="G138" t="s">
-        <v>545</v>
-      </c>
-      <c r="H138" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>547</v>
-      </c>
-      <c r="B139" t="s">
-        <v>580</v>
-      </c>
-      <c r="C139" t="s">
-        <v>548</v>
-      </c>
-      <c r="D139" t="s">
-        <v>548</v>
-      </c>
-      <c r="E139" t="s">
-        <v>549</v>
-      </c>
-      <c r="F139" t="s">
-        <v>687</v>
-      </c>
-      <c r="G139" t="s">
-        <v>550</v>
-      </c>
-      <c r="H139" t="s">
-        <v>551</v>
+      <c r="B142" t="s">
+        <v>586</v>
+      </c>
+      <c r="C142" t="s">
+        <v>553</v>
+      </c>
+      <c r="D142" t="s">
+        <v>553</v>
+      </c>
+      <c r="E142" t="s">
+        <v>554</v>
+      </c>
+      <c r="F142" t="s">
+        <v>694</v>
+      </c>
+      <c r="G142" t="s">
+        <v>555</v>
+      </c>
+      <c r="H142" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:N142" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EA 23.209 Patch 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Quest.xlsx
+++ b/data/Game/Quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7B2A6-F41C-4E17-948F-74C750076FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25575A7-65E3-4C01-9EAB-73C939CEE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>EA 23.209 Patch 2</t>
+    <t>EA 23.213</t>
   </si>
   <si>
     <t>Main Quest</t>
@@ -1919,19 +1919,22 @@
     <t>EA 23.100</t>
   </si>
   <si>
+    <t>EA 23.209 Patch 2</t>
+  </si>
+  <si>
+    <t>Beta 22.52</t>
+  </si>
+  <si>
+    <t>Beta 22.82</t>
+  </si>
+  <si>
+    <t>Beta 22.86</t>
+  </si>
+  <si>
+    <t>EA 23.136</t>
+  </si>
+  <si>
     <t>EA 23.200 Patch 2</t>
-  </si>
-  <si>
-    <t>Beta 22.52</t>
-  </si>
-  <si>
-    <t>Beta 22.82</t>
-  </si>
-  <si>
-    <t>Beta 22.86</t>
-  </si>
-  <si>
-    <t>EA 23.136</t>
   </si>
   <si>
     <t>EA 23.74</t>
@@ -2152,6 +2155,15 @@
     <t>Ta có cảm giác từ nãy đến giờ có ai đó ở phía sau…</t>
   </si>
   <si>
+    <t>Mọi người, tập hợp lại đi nào. | Chúng ta cần nghĩ cách đối phó với Issizzle.</t>
+  </si>
+  <si>
+    <t>| Hãy đợi Kettle trở về.</t>
+  </si>
+  <si>
+    <t>| Có vẻ như bạn phải ném một loại chất lỏng nào đó vào ‘Dòng nước tù đọng’ ở tận cùng sâu nhất của Hầm mộ Kẻ Bị Nguyền. (còn tiếp)</t>
+  </si>
+  <si>
     <t>Bạn có thấy Kettle không? | Bạn đã nhận được chiếc vòng tay từ Demitas để phá kết giới quanh Làng Lưu Đày. Hãy tiến đến ngôi làng ở phía đông Mysilia.</t>
   </si>
   <si>
@@ -2165,6 +2177,9 @@
   </si>
   <si>
     <t>|Nhiệm vụ do Bicerin giao đã hoàn thành. Đã đến lúc quay về Làng Lưu Đày để báo cáo cho ông ấy.</t>
+  </si>
+  <si>
+    <t>| Ngươi đã hoàn tất công việc ở Làng Chuộc Tội. Hãy chờ Kettle quay về.</t>
   </si>
   <si>
     <t>Ngươi có thông thạo huyền thuật không?</t>
@@ -2338,18 +2353,6 @@
   </si>
   <si>
     <t>Hoàn thành.</t>
-  </si>
-  <si>
-    <t>Mọi người, tập hợp lại đi nào. | Chúng ta cần nghĩ cách đối phó với Issizzle.</t>
-  </si>
-  <si>
-    <t>| Hãy đợi Kettle trở về.</t>
-  </si>
-  <si>
-    <t>| Có vẻ như bạn phải ném một loại chất lỏng nào đó vào ‘Dòng nước tù đọng’ ở tận cùng sâu nhất của Hầm mộ Kẻ Bị Nguyền. (còn tiếp)</t>
-  </si>
-  <si>
-    <t>| Ngươi đã hoàn tất công việc ở Làng Chuộc Tội. Hãy chờ Kettle quay về.</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2781,7 +2784,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2807,7 +2810,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2824,7 +2827,7 @@
         <v>557</v>
       </c>
       <c r="F5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2850,7 +2853,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2876,7 +2879,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2893,7 +2896,7 @@
         <v>559</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2910,7 +2913,7 @@
         <v>559</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2936,7 +2939,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2953,7 +2956,7 @@
         <v>561</v>
       </c>
       <c r="F11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2979,7 +2982,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -2988,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
@@ -3014,7 +3017,7 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -3023,7 +3026,7 @@
         <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="M13" t="s">
         <v>64</v>
@@ -3049,7 +3052,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -3075,7 +3078,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -3101,7 +3104,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -3127,7 +3130,7 @@
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H17" t="s">
         <v>84</v>
@@ -3141,7 +3144,7 @@
         <v>557</v>
       </c>
       <c r="F18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H18" t="s">
         <v>86</v>
@@ -3172,7 +3175,7 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
@@ -3206,7 +3209,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -3223,7 +3226,7 @@
         <v>557</v>
       </c>
       <c r="F23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G23" t="s">
         <v>100</v>
@@ -3240,7 +3243,7 @@
         <v>557</v>
       </c>
       <c r="F24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
@@ -3274,7 +3277,7 @@
         <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -3308,7 +3311,7 @@
         <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -3334,7 +3337,7 @@
         <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
@@ -3360,7 +3363,7 @@
         <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G30" t="s">
         <v>122</v>
@@ -3377,7 +3380,7 @@
         <v>563</v>
       </c>
       <c r="F31" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G31" t="s">
         <v>125</v>
@@ -3411,7 +3414,7 @@
         <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G33" t="s">
         <v>131</v>
@@ -3428,7 +3431,7 @@
         <v>563</v>
       </c>
       <c r="F34" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G34" t="s">
         <v>134</v>
@@ -3445,7 +3448,7 @@
         <v>563</v>
       </c>
       <c r="F35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G35" t="s">
         <v>137</v>
@@ -3479,7 +3482,7 @@
         <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G37" t="s">
         <v>143</v>
@@ -3496,7 +3499,7 @@
         <v>557</v>
       </c>
       <c r="F38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
@@ -3530,7 +3533,7 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -3564,7 +3567,7 @@
         <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -3581,7 +3584,7 @@
         <v>557</v>
       </c>
       <c r="F43" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G43" t="s">
         <v>161</v>
@@ -3598,7 +3601,7 @@
         <v>557</v>
       </c>
       <c r="F44" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G44" t="s">
         <v>164</v>
@@ -3615,7 +3618,7 @@
         <v>557</v>
       </c>
       <c r="F45" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G45" t="s">
         <v>167</v>
@@ -3632,7 +3635,7 @@
         <v>557</v>
       </c>
       <c r="F46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G46" t="s">
         <v>167</v>
@@ -3649,7 +3652,7 @@
         <v>557</v>
       </c>
       <c r="F47" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G47" t="s">
         <v>171</v>
@@ -3683,7 +3686,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G49" t="s">
         <v>177</v>
@@ -3709,7 +3712,7 @@
         <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G50" t="s">
         <v>182</v>
@@ -3743,7 +3746,7 @@
         <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
@@ -3777,7 +3780,7 @@
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G54" t="s">
         <v>194</v>
@@ -3803,7 +3806,7 @@
         <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G55" t="s">
         <v>199</v>
@@ -3829,7 +3832,7 @@
         <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G56" t="s">
         <v>204</v>
@@ -3855,7 +3858,7 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
@@ -3907,7 +3910,7 @@
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G59" t="s">
         <v>219</v>
@@ -3933,7 +3936,7 @@
         <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
@@ -3959,7 +3962,7 @@
         <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G61" t="s">
         <v>229</v>
@@ -3976,7 +3979,7 @@
         <v>565</v>
       </c>
       <c r="F62" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -3993,7 +3996,7 @@
         <v>565</v>
       </c>
       <c r="F63" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -4010,7 +4013,7 @@
         <v>569</v>
       </c>
       <c r="F64" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G64" t="s">
         <v>238</v>
@@ -4027,7 +4030,7 @@
         <v>565</v>
       </c>
       <c r="F65" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G65" t="s">
         <v>241</v>
@@ -4044,7 +4047,7 @@
         <v>570</v>
       </c>
       <c r="F66" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G66" t="s">
         <v>244</v>
@@ -4061,7 +4064,7 @@
         <v>565</v>
       </c>
       <c r="F67" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G67" t="s">
         <v>247</v>
@@ -4078,7 +4081,7 @@
         <v>565</v>
       </c>
       <c r="F68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G68" t="s">
         <v>250</v>
@@ -4095,7 +4098,7 @@
         <v>565</v>
       </c>
       <c r="F69" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G69" t="s">
         <v>253</v>
@@ -4112,7 +4115,7 @@
         <v>571</v>
       </c>
       <c r="F70" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -4166,7 +4169,7 @@
         <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G73" t="s">
         <v>264</v>
@@ -4218,7 +4221,7 @@
         <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G75" t="s">
         <v>274</v>
@@ -4244,7 +4247,7 @@
         <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G76" t="s">
         <v>279</v>
@@ -4270,7 +4273,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4307,7 +4310,7 @@
         <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G79" t="s">
         <v>291</v>
@@ -4333,7 +4336,7 @@
         <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G80" t="s">
         <v>296</v>
@@ -4359,7 +4362,7 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G81" t="s">
         <v>301</v>
@@ -4385,7 +4388,7 @@
         <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G82" t="s">
         <v>224</v>
@@ -4411,7 +4414,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4420,12 +4423,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="C84" t="s">
         <v>312</v>
@@ -4437,7 +4440,7 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="G84" t="s">
         <v>314</v>
@@ -4446,15 +4449,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="F85" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4463,15 +4466,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="F86" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G86" t="s">
         <v>317</v>
@@ -4480,15 +4483,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>320</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="F87" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G87" t="s">
         <v>317</v>
@@ -4497,15 +4500,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="F88" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="G88" t="s">
         <v>322</v>
@@ -4531,7 +4534,7 @@
         <v>326</v>
       </c>
       <c r="F89" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="G89" t="s">
         <v>327</v>
@@ -4545,10 +4548,10 @@
         <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F90" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G90" t="s">
         <v>330</v>
@@ -4562,10 +4565,10 @@
         <v>332</v>
       </c>
       <c r="B91" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F91" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="G91" t="s">
         <v>333</v>
@@ -4579,10 +4582,10 @@
         <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F92" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G92" t="s">
         <v>336</v>
@@ -4596,10 +4599,10 @@
         <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F93" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G93" t="s">
         <v>339</v>
@@ -4608,15 +4611,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="F94" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="G94" t="s">
         <v>342</v>
@@ -4642,7 +4645,7 @@
         <v>346</v>
       </c>
       <c r="F95" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="G95" t="s">
         <v>347</v>
@@ -4720,7 +4723,7 @@
         <v>355</v>
       </c>
       <c r="F98" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H98" t="s">
         <v>356</v>
@@ -4731,7 +4734,7 @@
         <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C99" t="s">
         <v>358</v>
@@ -4757,7 +4760,7 @@
         <v>360</v>
       </c>
       <c r="B100" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C100" t="s">
         <v>361</v>
@@ -4783,7 +4786,7 @@
         <v>364</v>
       </c>
       <c r="B101" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C101" t="s">
         <v>365</v>
@@ -4809,7 +4812,7 @@
         <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C102" t="s">
         <v>368</v>
@@ -4835,7 +4838,7 @@
         <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C103" t="s">
         <v>371</v>
@@ -4873,7 +4876,7 @@
         <v>375</v>
       </c>
       <c r="F104" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G104" t="s">
         <v>376</v>
@@ -4890,7 +4893,7 @@
         <v>557</v>
       </c>
       <c r="F105" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="G105" t="s">
         <v>379</v>
@@ -4916,7 +4919,7 @@
         <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G106" t="s">
         <v>384</v>
@@ -4942,7 +4945,7 @@
         <v>388</v>
       </c>
       <c r="F107" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="G107" t="s">
         <v>389</v>
@@ -4959,7 +4962,7 @@
         <v>557</v>
       </c>
       <c r="F108" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="G108" t="s">
         <v>392</v>
@@ -4985,7 +4988,7 @@
         <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="G109" t="s">
         <v>397</v>
@@ -5011,7 +5014,7 @@
         <v>401</v>
       </c>
       <c r="F110" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="G110" t="s">
         <v>402</v>
@@ -5028,7 +5031,7 @@
         <v>557</v>
       </c>
       <c r="F111" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G111" t="s">
         <v>405</v>
@@ -5054,7 +5057,7 @@
         <v>409</v>
       </c>
       <c r="F112" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G112" t="s">
         <v>410</v>
@@ -5068,7 +5071,7 @@
         <v>412</v>
       </c>
       <c r="B113" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C113" t="s">
         <v>413</v>
@@ -5080,7 +5083,7 @@
         <v>414</v>
       </c>
       <c r="F113" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="G113" t="s">
         <v>415</v>
@@ -5094,10 +5097,10 @@
         <v>417</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F114" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G114" t="s">
         <v>418</v>
@@ -5123,7 +5126,7 @@
         <v>422</v>
       </c>
       <c r="F115" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="G115" t="s">
         <v>423</v>
@@ -5149,7 +5152,7 @@
         <v>427</v>
       </c>
       <c r="F116" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="G116" t="s">
         <v>428</v>
@@ -5163,7 +5166,7 @@
         <v>430</v>
       </c>
       <c r="B117" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s">
         <v>431</v>
@@ -5175,7 +5178,7 @@
         <v>432</v>
       </c>
       <c r="F117" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G117" t="s">
         <v>433</v>
@@ -5201,7 +5204,7 @@
         <v>437</v>
       </c>
       <c r="F118" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="G118" t="s">
         <v>438</v>
@@ -5227,7 +5230,7 @@
         <v>442</v>
       </c>
       <c r="F119" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G119" t="s">
         <v>443</v>
@@ -5241,7 +5244,7 @@
         <v>445</v>
       </c>
       <c r="B120" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C120" t="s">
         <v>446</v>
@@ -5253,7 +5256,7 @@
         <v>447</v>
       </c>
       <c r="F120" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G120" t="s">
         <v>448</v>
@@ -5267,7 +5270,7 @@
         <v>450</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C121" t="s">
         <v>451</v>
@@ -5279,7 +5282,7 @@
         <v>452</v>
       </c>
       <c r="F121" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="G121" t="s">
         <v>453</v>
@@ -5305,7 +5308,7 @@
         <v>457</v>
       </c>
       <c r="F122" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="G122" t="s">
         <v>458</v>
@@ -5331,7 +5334,7 @@
         <v>462</v>
       </c>
       <c r="F123" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="G123" t="s">
         <v>463</v>
@@ -5357,7 +5360,7 @@
         <v>467</v>
       </c>
       <c r="F124" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="G124" t="s">
         <v>468</v>
@@ -5383,7 +5386,7 @@
         <v>472</v>
       </c>
       <c r="F125" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="G125" t="s">
         <v>473</v>
@@ -5409,7 +5412,7 @@
         <v>477</v>
       </c>
       <c r="F126" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G126" t="s">
         <v>478</v>
@@ -5435,7 +5438,7 @@
         <v>482</v>
       </c>
       <c r="F127" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="G127" t="s">
         <v>483</v>
@@ -5461,7 +5464,7 @@
         <v>487</v>
       </c>
       <c r="F128" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="G128" t="s">
         <v>488</v>
@@ -5487,7 +5490,7 @@
         <v>492</v>
       </c>
       <c r="F129" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G129" t="s">
         <v>493</v>
@@ -5513,7 +5516,7 @@
         <v>497</v>
       </c>
       <c r="F130" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="G130" t="s">
         <v>498</v>
@@ -5539,7 +5542,7 @@
         <v>502</v>
       </c>
       <c r="F131" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="G131" t="s">
         <v>503</v>
@@ -5565,7 +5568,7 @@
         <v>507</v>
       </c>
       <c r="F132" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="G132" t="s">
         <v>508</v>
@@ -5591,7 +5594,7 @@
         <v>512</v>
       </c>
       <c r="F133" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="G133" t="s">
         <v>513</v>
@@ -5617,7 +5620,7 @@
         <v>512</v>
       </c>
       <c r="F134" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G134" t="s">
         <v>513</v>
@@ -5643,7 +5646,7 @@
         <v>519</v>
       </c>
       <c r="F135" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="G135" t="s">
         <v>520</v>
@@ -5669,7 +5672,7 @@
         <v>524</v>
       </c>
       <c r="F136" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="G136" t="s">
         <v>525</v>
@@ -5695,7 +5698,7 @@
         <v>529</v>
       </c>
       <c r="F137" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="G137" t="s">
         <v>530</v>
@@ -5721,7 +5724,7 @@
         <v>534</v>
       </c>
       <c r="F138" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="G138" t="s">
         <v>535</v>
@@ -5747,7 +5750,7 @@
         <v>539</v>
       </c>
       <c r="F139" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G139" t="s">
         <v>540</v>
@@ -5761,7 +5764,7 @@
         <v>542</v>
       </c>
       <c r="B140" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C140" t="s">
         <v>543</v>
@@ -5773,7 +5776,7 @@
         <v>544</v>
       </c>
       <c r="F140" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G140" t="s">
         <v>545</v>
@@ -5787,7 +5790,7 @@
         <v>547</v>
       </c>
       <c r="B141" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C141" t="s">
         <v>548</v>
@@ -5799,7 +5802,7 @@
         <v>549</v>
       </c>
       <c r="F141" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G141" t="s">
         <v>550</v>
@@ -5813,7 +5816,7 @@
         <v>552</v>
       </c>
       <c r="B142" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C142" t="s">
         <v>553</v>
@@ -5825,7 +5828,7 @@
         <v>554</v>
       </c>
       <c r="F142" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="G142" t="s">
         <v>555</v>
@@ -5838,7 +5841,7 @@
   <autoFilter ref="A2:N142" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="EA 23.209 Patch 2"/>
+        <filter val="EA 23.213"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Game/Quest.xlsx
+++ b/data/Game/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25575A7-65E3-4C01-9EAB-73C939CEE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE274F9-D368-4947-BD4F-FA990EF4FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$144</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="797">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>main</t>
   </si>
   <si>
-    <t>EA 23.213</t>
+    <t>EA 23.222 Patch 1</t>
   </si>
   <si>
     <t>Main Quest</t>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>ミシリアは復興と存続のために盟友を必要としている。新天地の発展を進めれば、ミシリアから報せが届くかもしれない。</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>Last Spice</t>
+  </si>
+  <si>
+    <t>至高の味の謎</t>
+  </si>
+  <si>
+    <t>Tyche asked you to uncover the secret behind the flavor of “Dragons and Spices” curry. There might be a clue hidden beneath the Doga Ruins.</t>
+  </si>
+  <si>
+    <t>気ままな傭兵ティケに、「竜と香辛料」のカレーの味の秘密を探るよう頼まれた。ドーガ遺跡の地下に何か手がかりがあるかもしれない。</t>
+  </si>
+  <si>
+    <t>curry1</t>
+  </si>
+  <si>
+    <t>You discovered a mechanical factory in the depths of the ruins and destroyed its chief. Time to report back to Tyche.</t>
+  </si>
+  <si>
+    <t>ドーガ遺跡の地下で機械工場を見つけ、工場長を破壊した。ティケに報告しよう。</t>
   </si>
   <si>
     <t>nasu</t>
@@ -1919,16 +1943,16 @@
     <t>EA 23.100</t>
   </si>
   <si>
+    <t>Beta 22.52</t>
+  </si>
+  <si>
+    <t>Beta 22.82</t>
+  </si>
+  <si>
+    <t>Beta 22.86</t>
+  </si>
+  <si>
     <t>EA 23.209 Patch 2</t>
-  </si>
-  <si>
-    <t>Beta 22.52</t>
-  </si>
-  <si>
-    <t>Beta 22.82</t>
-  </si>
-  <si>
-    <t>Beta 22.86</t>
   </si>
   <si>
     <t>EA 23.136</t>
@@ -2180,9 +2204,6 @@
   </si>
   <si>
     <t>| Ngươi đã hoàn tất công việc ở Làng Chuộc Tội. Hãy chờ Kettle quay về.</t>
-  </si>
-  <si>
-    <t>Ngươi có thông thạo huyền thuật không?</t>
   </si>
   <si>
     <t>Tôi có chuyện muốn nói với bạn.| Về thông tin liên quan đến Lisanus, Farris đã khuyên bạn hãy tìm gặp em gái mình là Siorsia. Nghe nói Siorsia đang ở tại ngôi làng Olvina, nằm về phía tây nam của Home.</t>
@@ -2353,6 +2374,313 @@
   </si>
   <si>
     <t>Hoàn thành.</t>
+  </si>
+  <si>
+    <t>Bí Ẩn Gia Vị Tối Thượng</t>
+  </si>
+  <si>
+    <t>Bạn được lính đánh thuê phóng khoáng Tyche nhờ tìm ra bí mật đằng sau hương vị của món cà ri "Rồng và Gia Vị". Manh mối có thể đang ẩn giấu bên dưới Tàn tích Doga.</t>
+  </si>
+  <si>
+    <t>Bạn đã tìm thấy một nhà máy cơ khí dưới Tàn tích Doga và phá hủy Quản đốc nhà máy. Hãy báo cáo cho Tyche.</t>
+  </si>
+  <si>
+    <t>Nhiệm Vụ Chính</t>
+  </si>
+  <si>
+    <t>Vùng Đất Mới</t>
+  </si>
+  <si>
+    <t>Phục Hưng Mysilia</t>
+  </si>
+  <si>
+    <t>Truy Tìm Bí Ẩn Chiếc Túi Huyền Thoại!</t>
+  </si>
+  <si>
+    <t>Dinh Thự Ma Ám</t>
+  </si>
+  <si>
+    <t>Công thức Hot Crim</t>
+  </si>
+  <si>
+    <t>Thuần hóa</t>
+  </si>
+  <si>
+    <t>Tập kích</t>
+  </si>
+  <si>
+    <t>Tín vật gặp gỡ</t>
+  </si>
+  <si>
+    <t>Hố Bí Ẩn</t>
+  </si>
+  <si>
+    <t>Tìm Kiếm Đồng Đội</t>
+  </si>
+  <si>
+    <t>Trang Bị Thiết Yếu</t>
+  </si>
+  <si>
+    <t>Huấn luyện chiến đấu</t>
+  </si>
+  <si>
+    <t>Hướng dẫn của Fiama</t>
+  </si>
+  <si>
+    <t>Linh cảm của Fiama</t>
+  </si>
+  <si>
+    <t>Tầm Nhìn Tương Lai</t>
+  </si>
+  <si>
+    <t>Chú Chó Con Đi Lạc</t>
+  </si>
+  <si>
+    <t>Nghệ Thuật Chế Tác</t>
+  </si>
+  <si>
+    <t>Nghĩa Vụ Nộp Thuế</t>
+  </si>
+  <si>
+    <t>Hội đồng Tyris</t>
+  </si>
+  <si>
+    <t>Đến Vùng Đất Mới</t>
+  </si>
+  <si>
+    <t>Giám sát viên Khai phá</t>
+  </si>
+  <si>
+    <t>Thùng Hàng Đầu Tiên</t>
+  </si>
+  <si>
+    <t>Tâm Thế Khai Phá</t>
+  </si>
+  <si>
+    <t>Tin tức từ Mysilia</t>
+  </si>
+  <si>
+    <t>Tấm Lòng của Người Hát Xướng</t>
+  </si>
+  <si>
+    <t>Nhà Giả Kim Lang Thang</t>
+  </si>
+  <si>
+    <t>Một Thoáng Ban Mai</t>
+  </si>
+  <si>
+    <t>Hoa và Thiếu Nữ</t>
+  </si>
+  <si>
+    <t>Thiếu Nữ Mắt Tai Ương</t>
+  </si>
+  <si>
+    <t>Nhắc Tào Tháo…</t>
+  </si>
+  <si>
+    <t>Hoàng Kim Dưới Mỏ Sâu</t>
+  </si>
+  <si>
+    <t>Nhà thám hiểm</t>
+  </si>
+  <si>
+    <t>Bài học Long Ngữ</t>
+  </si>
+  <si>
+    <t>Tận Cùng Tuyệt Vọng</t>
+  </si>
+  <si>
+    <t>Giám sát viên mất tích</t>
+  </si>
+  <si>
+    <t>Và Thế Là Đi Vào Huyền Thoại</t>
+  </si>
+  <si>
+    <t>Nhịp Đập Vận Mệnh</t>
+  </si>
+  <si>
+    <t>Đêm Dài</t>
+  </si>
+  <si>
+    <t>Cái Bóng Lén Lút</t>
+  </si>
+  <si>
+    <t>Tâm Điểm Tin Đồn</t>
+  </si>
+  <si>
+    <t>Tiếng Vọng Từ Bóng Tối</t>
+  </si>
+  <si>
+    <t>Tiến Vào Bóng Tối</t>
+  </si>
+  <si>
+    <t>Đàm phán với Bóng tối</t>
+  </si>
+  <si>
+    <t>Tác giả Sách phép</t>
+  </si>
+  <si>
+    <t>Ngươi có thông thạo ma thuật không?</t>
+  </si>
+  <si>
+    <t>Thăm em gái</t>
+  </si>
+  <si>
+    <t>Yêu Cầu Guild (Chiến Binh)</t>
+  </si>
+  <si>
+    <t>Yêu Cầu Guild (Pháp Sư)</t>
+  </si>
+  <si>
+    <t>Yêu Cầu Guild (Đạo Tặc)</t>
+  </si>
+  <si>
+    <t>Yêu Cầu Guild (Thương Nhân)</t>
+  </si>
+  <si>
+    <t>Gia Nhập Hội Chiến Binh</t>
+  </si>
+  <si>
+    <t>Hội Chiến Binh</t>
+  </si>
+  <si>
+    <t>Gia Nhập Hội Pháp Sư</t>
+  </si>
+  <si>
+    <t>Hội Pháp Sư</t>
+  </si>
+  <si>
+    <t>Gia Nhập Hội Đạo Tặc</t>
+  </si>
+  <si>
+    <t>Hội Đạo Tặc</t>
+  </si>
+  <si>
+    <t>Gia Nhập Hội Thương Nhân</t>
+  </si>
+  <si>
+    <t>Hội Thương Nhân</t>
+  </si>
+  <si>
+    <t>Việc vặt
+Thành phố cuồng nhiệt
+Yêu cầu giao hàng
+Quà chúc mừng
+Giao hàng hiếm
+Thu gom phế liệu
+Một bước tới tham vọng
+Yêu cầu trả lại
+Minh chứng tình bạn</t>
+  </si>
+  <si>
+    <t>Sở thích sưu tầm
+Món hàng gấp
+Quà cho người thương
+Quà cho bản thân
+Sinh nhật con
+Nguyên liệu nghiên cứu
+Yêu cầu của nhà sưu tầm
+Giao nộp vật phẩm</t>
+  </si>
+  <si>
+    <t>Ngôi nhà mơ ước
+Yêu cầu thu mua</t>
+  </si>
+  <si>
+    <t>Tàn Cuộc Cuồng Nhiệt
+Bộ sưu tập hiếm có
+Tình Huống Tồi Tệ Nhất</t>
+  </si>
+  <si>
+    <t>Quái vật phiền phức
+Tuần tra định kỳ
+Một việc tốt nhỏ</t>
+  </si>
+  <si>
+    <t>Chủng tộc kinh tởm</t>
+  </si>
+  <si>
+    <t>Chiến tranh rồi!</t>
+  </si>
+  <si>
+    <t>Sào huyệt quái vật</t>
+  </si>
+  <si>
+    <t>Phụ giúp việc đồng áng
+Thu hoạch giúp tôi
+Mùa thu hoạch</t>
+  </si>
+  <si>
+    <t>Bé Yêu!
+Tiệc Người Nổi Tiếng
+Tuyển người biểu diễn thay thế</t>
+  </si>
+  <si>
+    <t>Yêu cầu tiêu diệt quái vật
+Tiêu diệt quái vật
+Quái vật quanh nhà</t>
+  </si>
+  <si>
+    <t>Thịt!
+Tiếp đãi</t>
+  </si>
+  <si>
+    <t>Ăn uống lành mạnh
+Cá cho bọn trẻ</t>
+  </si>
+  <si>
+    <t>Đồ ăn kiêng
+Cải thiện chứng kén ăn</t>
+  </si>
+  <si>
+    <t>Tráng miệng hoa quả
+Tiệc cocktail!</t>
+  </si>
+  <si>
+    <t>Hội yêu bánh mì
+Đồ ăn dã ngoại</t>
+  </si>
+  <si>
+    <t>Cuồng Mì
+Tôi Yêu Mì!</t>
+  </si>
+  <si>
+    <t>Sở thích hảo ngọt
+Đồ ăn vặt cho trẻ</t>
+  </si>
+  <si>
+    <t>Món Trứng Mê Hoặc
+Bữa Sáng Tuyệt Vời Nhất</t>
+  </si>
+  <si>
+    <t>Cơm mạo hiểm giả!
+Cho đến khi no căng</t>
+  </si>
+  <si>
+    <t>Đêm súp nóng!
+Món ăn thăm bệnh</t>
+  </si>
+  <si>
+    <t>Tham vọng của đầu bếp
+Tôi muốn ăn ngon!</t>
+  </si>
+  <si>
+    <t>Cần hộ tống!
+Hướng dẫn khách du lịch
+Hộ tống đơn giản</t>
+  </si>
+  <si>
+    <t>Hộ tống Sứ giả
+Người quá xinh đẹp
+Ngăn chặn một vụ ám sát</t>
+  </si>
+  <si>
+    <t>Hộ tống khẩn cấp
+Một lần trước khi chết
+Trước khi quá muộn</t>
+  </si>
+  <si>
+    <t>Hỗ trợ Chế tạo</t>
   </si>
 </sst>
 </file>
@@ -2393,9 +2721,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,12 +3041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2767,15 +3097,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>712</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2784,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2793,15 +3123,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>713</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2810,7 +3140,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2819,15 +3149,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -2836,15 +3166,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>714</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2853,7 +3183,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2862,15 +3192,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>709</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2879,7 +3209,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>592</v>
+        <v>710</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2888,15 +3218,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>593</v>
+        <v>711</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -2905,41 +3235,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>715</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+        <v>567</v>
       </c>
       <c r="F10" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -2948,15 +3278,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F11" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2965,15 +3295,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>716</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -2982,7 +3312,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -2990,996 +3320,996 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="L12" t="s">
-        <v>700</v>
-      </c>
-      <c r="M12" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="N12" t="s">
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>557</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
-        <v>598</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F14" t="s">
+        <v>605</v>
+      </c>
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
-        <v>701</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="N13" t="s">
+      <c r="L14" t="s">
+        <v>707</v>
+      </c>
+      <c r="M14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
-        <v>599</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F15" t="s">
+        <v>606</v>
+      </c>
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="H15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="L15" t="s">
+        <v>708</v>
+      </c>
+      <c r="M15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>719</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
-        <v>557</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="H16" t="s">
+      <c r="B17" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>608</v>
+      </c>
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" t="s">
+        <v>721</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
-        <v>557</v>
+      <c r="E18" t="s">
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>603</v>
+        <v>609</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="C19" t="s">
+        <v>722</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>610</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
+        <v>565</v>
       </c>
       <c r="F20" t="s">
-        <v>604</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
+        <v>611</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>723</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>557</v>
-      </c>
-      <c r="F23" t="s">
-        <v>606</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>557</v>
+        <v>565</v>
+      </c>
+      <c r="C24" t="s">
+        <v>724</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="F25" t="s">
+        <v>614</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
-      </c>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>108</v>
+        <v>565</v>
       </c>
       <c r="F26" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>725</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>609</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>726</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
+        <v>572</v>
+      </c>
+      <c r="C31" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="C32" t="s">
+        <v>728</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>618</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
+        <v>571</v>
       </c>
       <c r="F33" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
-      </c>
-      <c r="F34" t="s">
-        <v>613</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>563</v>
+        <v>573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="F36" t="s">
+        <v>621</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
+        <v>571</v>
       </c>
       <c r="F37" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
-      </c>
-      <c r="F38" t="s">
-        <v>616</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="C39" t="s">
+        <v>730</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>623</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
+        <v>565</v>
       </c>
       <c r="F40" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>731</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>557</v>
-      </c>
-      <c r="F43" t="s">
-        <v>619</v>
-      </c>
-      <c r="G43" t="s">
-        <v>161</v>
-      </c>
-      <c r="H43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>557</v>
+        <v>565</v>
+      </c>
+      <c r="C44" t="s">
+        <v>732</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F45" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F46" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F47" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="F48" t="s">
+        <v>629</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>563</v>
-      </c>
-      <c r="C49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" t="s">
-        <v>176</v>
+        <v>565</v>
       </c>
       <c r="F49" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
-      </c>
-      <c r="C50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s">
-        <v>624</v>
-      </c>
-      <c r="G50" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>182</v>
       </c>
-      <c r="H50" t="s">
+      <c r="B51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C51" t="s">
+        <v>733</v>
+      </c>
+      <c r="D51" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="E51" t="s">
         <v>184</v>
       </c>
-      <c r="B51" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>631</v>
+      </c>
+      <c r="G51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>734</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>735</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F54" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>567</v>
-      </c>
-      <c r="C55" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" t="s">
-        <v>627</v>
-      </c>
-      <c r="G55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>199</v>
       </c>
-      <c r="H55" t="s">
+      <c r="B56" t="s">
+        <v>575</v>
+      </c>
+      <c r="C56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D56" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E56" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
-        <v>567</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="F56" t="s">
+        <v>634</v>
+      </c>
+      <c r="G56" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>203</v>
       </c>
-      <c r="F56" t="s">
-        <v>628</v>
-      </c>
-      <c r="G56" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="H56" t="s">
+      <c r="B57" t="s">
+        <v>575</v>
+      </c>
+      <c r="C57" t="s">
+        <v>737</v>
+      </c>
+      <c r="D57" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E57" t="s">
         <v>206</v>
       </c>
-      <c r="B57" t="s">
-        <v>567</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="F57" t="s">
+        <v>635</v>
+      </c>
+      <c r="G57" t="s">
         <v>207</v>
       </c>
-      <c r="D57" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>208</v>
       </c>
-      <c r="F57" t="s">
-        <v>629</v>
-      </c>
-      <c r="G57" t="s">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>209</v>
       </c>
-      <c r="H57" t="s">
+      <c r="B58" t="s">
+        <v>575</v>
+      </c>
+      <c r="C58" t="s">
+        <v>738</v>
+      </c>
+      <c r="D58" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="E58" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
-        <v>565</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
+        <v>636</v>
+      </c>
+      <c r="G58" t="s">
         <v>212</v>
       </c>
-      <c r="D58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>213</v>
       </c>
-      <c r="F58" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>214</v>
       </c>
-      <c r="G58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="B59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C59" t="s">
+        <v>739</v>
+      </c>
+      <c r="D59" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="E59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
-        <v>568</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="F59" t="s">
+        <v>637</v>
+      </c>
+      <c r="G59" t="s">
         <v>217</v>
       </c>
-      <c r="D59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>218</v>
       </c>
-      <c r="F59" t="s">
-        <v>630</v>
-      </c>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>219</v>
       </c>
-      <c r="H59" t="s">
+      <c r="B60" t="s">
+        <v>573</v>
+      </c>
+      <c r="C60" t="s">
+        <v>740</v>
+      </c>
+      <c r="D60" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
         <v>221</v>
       </c>
-      <c r="B60" t="s">
-        <v>565</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="F60" t="s">
         <v>222</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
         <v>222</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>223</v>
       </c>
-      <c r="F60" t="s">
-        <v>631</v>
-      </c>
-      <c r="G60" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>224</v>
       </c>
-      <c r="H60" t="s">
+      <c r="B61" t="s">
+        <v>576</v>
+      </c>
+      <c r="C61" t="s">
+        <v>741</v>
+      </c>
+      <c r="D61" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="E61" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="F61" t="s">
+        <v>638</v>
+      </c>
+      <c r="G61" t="s">
         <v>227</v>
       </c>
-      <c r="D61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s">
-        <v>632</v>
-      </c>
-      <c r="G61" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>229</v>
       </c>
-      <c r="H61" t="s">
+      <c r="B62" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" t="s">
+        <v>742</v>
+      </c>
+      <c r="D62" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="E62" t="s">
         <v>231</v>
       </c>
-      <c r="B62" t="s">
-        <v>565</v>
-      </c>
       <c r="F62" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
@@ -3988,424 +4318,415 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>565</v>
+        <v>573</v>
+      </c>
+      <c r="C63" t="s">
+        <v>743</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F64" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F65" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F66" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F67" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F68" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F69" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F70" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>573</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>648</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
+        <v>579</v>
+      </c>
+      <c r="F72" t="s">
+        <v>649</v>
+      </c>
+      <c r="G72" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" t="s">
         <v>15</v>
       </c>
-      <c r="F72" t="s">
-        <v>259</v>
-      </c>
-      <c r="G72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" t="s">
-        <v>565</v>
-      </c>
-      <c r="C73" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
-      </c>
       <c r="F73" t="s">
-        <v>642</v>
+        <v>267</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>565</v>
-      </c>
-      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
         <v>267</v>
       </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
         <v>267</v>
       </c>
-      <c r="E74" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" t="s">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>269</v>
-      </c>
-      <c r="G74" t="s">
-        <v>269</v>
-      </c>
-      <c r="H74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>271</v>
       </c>
       <c r="B75" t="s">
         <v>573</v>
       </c>
       <c r="C75" t="s">
+        <v>744</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" t="s">
+        <v>650</v>
+      </c>
+      <c r="G75" t="s">
         <v>272</v>
       </c>
-      <c r="D75" t="s">
-        <v>272</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>273</v>
       </c>
-      <c r="F75" t="s">
-        <v>643</v>
-      </c>
-      <c r="G75" t="s">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>274</v>
-      </c>
-      <c r="H75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>276</v>
       </c>
       <c r="B76" t="s">
         <v>573</v>
       </c>
       <c r="C76" t="s">
+        <v>745</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" t="s">
         <v>277</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>277</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>278</v>
       </c>
-      <c r="F76" t="s">
-        <v>644</v>
-      </c>
-      <c r="G76" t="s">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>279</v>
       </c>
-      <c r="H76" t="s">
+      <c r="B77" t="s">
+        <v>580</v>
+      </c>
+      <c r="C77" t="s">
+        <v>746</v>
+      </c>
+      <c r="D77" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="E77" t="s">
         <v>281</v>
       </c>
-      <c r="B77" t="s">
-        <v>574</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="F77" t="s">
+        <v>651</v>
+      </c>
+      <c r="G77" t="s">
         <v>282</v>
       </c>
-      <c r="D77" t="s">
-        <v>282</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>283</v>
       </c>
-      <c r="F77" t="s">
-        <v>645</v>
-      </c>
-      <c r="G77" t="s">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>284</v>
       </c>
-      <c r="H77" t="s">
+      <c r="B78" t="s">
+        <v>580</v>
+      </c>
+      <c r="C78" t="s">
+        <v>747</v>
+      </c>
+      <c r="D78" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="E78" t="s">
         <v>286</v>
       </c>
-      <c r="B78" t="s">
-        <v>557</v>
+      <c r="F78" t="s">
+        <v>652</v>
+      </c>
+      <c r="G78" t="s">
+        <v>287</v>
       </c>
       <c r="H78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>748</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>575</v>
-      </c>
-      <c r="C80" t="s">
-        <v>294</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" t="s">
+        <v>565</v>
+      </c>
+      <c r="H80" t="s">
         <v>295</v>
       </c>
-      <c r="F80" t="s">
-        <v>647</v>
-      </c>
-      <c r="G80" t="s">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>296</v>
       </c>
-      <c r="H80" t="s">
+      <c r="B81" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" t="s">
+        <v>749</v>
+      </c>
+      <c r="D81" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="E81" t="s">
         <v>298</v>
       </c>
-      <c r="B81" t="s">
-        <v>575</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
+        <v>654</v>
+      </c>
+      <c r="G81" t="s">
         <v>299</v>
       </c>
-      <c r="D81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>300</v>
       </c>
-      <c r="F81" t="s">
-        <v>648</v>
-      </c>
-      <c r="G81" t="s">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>301</v>
       </c>
-      <c r="H81" t="s">
+      <c r="B82" t="s">
+        <v>582</v>
+      </c>
+      <c r="C82" t="s">
+        <v>750</v>
+      </c>
+      <c r="D82" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="E82" t="s">
         <v>303</v>
       </c>
-      <c r="B82" t="s">
-        <v>575</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="F82" t="s">
+        <v>655</v>
+      </c>
+      <c r="G82" t="s">
         <v>304</v>
       </c>
-      <c r="D82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>305</v>
       </c>
-      <c r="F82" t="s">
-        <v>631</v>
-      </c>
-      <c r="G82" t="s">
-        <v>224</v>
-      </c>
-      <c r="H82" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>751</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -4414,7 +4735,7 @@
         <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="G83" t="s">
         <v>309</v>
@@ -4423,15 +4744,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>752</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -4440,24 +4761,33 @@
         <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G84" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>314</v>
       </c>
-      <c r="H84" t="s">
+      <c r="B85" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" t="s">
+        <v>753</v>
+      </c>
+      <c r="D85" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="E85" t="s">
         <v>316</v>
       </c>
-      <c r="B85" t="s">
-        <v>572</v>
-      </c>
       <c r="F85" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G85" t="s">
         <v>317</v>
@@ -4466,92 +4796,92 @@
         <v>318</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>319</v>
       </c>
       <c r="B86" t="s">
-        <v>572</v>
+        <v>583</v>
+      </c>
+      <c r="C86" t="s">
+        <v>754</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H86" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F87" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="G87" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B88" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F88" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>576</v>
-      </c>
-      <c r="C89" t="s">
+        <v>583</v>
+      </c>
+      <c r="F89" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" t="s">
         <v>325</v>
       </c>
-      <c r="D89" t="s">
-        <v>325</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>326</v>
       </c>
-      <c r="F89" t="s">
-        <v>653</v>
-      </c>
-      <c r="G89" t="s">
-        <v>327</v>
-      </c>
-      <c r="H89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F90" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G90" t="s">
         <v>330</v>
@@ -4560,92 +4890,92 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>332</v>
       </c>
       <c r="B91" t="s">
-        <v>577</v>
+        <v>584</v>
+      </c>
+      <c r="C91" t="s">
+        <v>755</v>
+      </c>
+      <c r="D91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>334</v>
       </c>
       <c r="F91" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G91" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B92" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F92" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F93" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G93" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H93" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F94" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C95" t="s">
-        <v>345</v>
-      </c>
-      <c r="D95" t="s">
-        <v>345</v>
-      </c>
-      <c r="E95" t="s">
-        <v>346</v>
+        <v>585</v>
       </c>
       <c r="F95" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G95" t="s">
         <v>347</v>
@@ -4654,87 +4984,81 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>565</v>
-      </c>
-      <c r="C96" t="s">
+        <v>583</v>
+      </c>
+      <c r="F96" t="s">
+        <v>666</v>
+      </c>
+      <c r="G96" t="s">
         <v>350</v>
       </c>
-      <c r="D96" t="s">
-        <v>350</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>351</v>
       </c>
-      <c r="F96" t="s">
-        <v>269</v>
-      </c>
-      <c r="G96" t="s">
-        <v>269</v>
-      </c>
-      <c r="H96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>352</v>
       </c>
       <c r="B97" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C97" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
       <c r="D97" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F97" t="s">
-        <v>269</v>
+        <v>757</v>
       </c>
       <c r="G97" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="H97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C98" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F98" t="s">
-        <v>660</v>
+        <v>277</v>
+      </c>
+      <c r="G98" t="s">
+        <v>277</v>
       </c>
       <c r="H98" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B99" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C99" t="s">
         <v>358</v>
@@ -4746,163 +5070,169 @@
         <v>359</v>
       </c>
       <c r="F99" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B100" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C100" t="s">
-        <v>361</v>
+        <v>758</v>
       </c>
       <c r="D100" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E100" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
-      </c>
-      <c r="G100" t="s">
-        <v>363</v>
+        <v>667</v>
       </c>
       <c r="H100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="G101" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="H101" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C102" t="s">
-        <v>368</v>
+        <v>759</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G102" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H102" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C103" t="s">
+        <v>760</v>
+      </c>
+      <c r="D103" t="s">
+        <v>373</v>
+      </c>
+      <c r="E103" t="s">
+        <v>374</v>
+      </c>
+      <c r="F103" t="s">
         <v>371</v>
       </c>
-      <c r="D103" t="s">
+      <c r="G103" t="s">
         <v>371</v>
       </c>
-      <c r="E103" t="s">
-        <v>372</v>
-      </c>
-      <c r="F103" t="s">
-        <v>363</v>
-      </c>
-      <c r="G103" t="s">
-        <v>363</v>
-      </c>
       <c r="H103" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="C104" t="s">
-        <v>374</v>
+        <v>761</v>
       </c>
       <c r="D104" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E104" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F104" t="s">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>378</v>
       </c>
       <c r="B105" t="s">
-        <v>557</v>
+        <v>587</v>
+      </c>
+      <c r="C105" t="s">
+        <v>762</v>
+      </c>
+      <c r="D105" t="s">
+        <v>379</v>
+      </c>
+      <c r="E105" t="s">
+        <v>380</v>
       </c>
       <c r="F105" t="s">
-        <v>662</v>
+        <v>371</v>
       </c>
       <c r="G105" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H105" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -4910,7 +5240,7 @@
         <v>565</v>
       </c>
       <c r="C106" t="s">
-        <v>382</v>
+        <v>763</v>
       </c>
       <c r="D106" t="s">
         <v>382</v>
@@ -4919,7 +5249,7 @@
         <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G106" t="s">
         <v>384</v>
@@ -4928,41 +5258,41 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>557</v>
-      </c>
-      <c r="C107" t="s">
+        <v>565</v>
+      </c>
+      <c r="F107" t="s">
+        <v>669</v>
+      </c>
+      <c r="G107" t="s">
         <v>387</v>
       </c>
-      <c r="D107" t="s">
-        <v>387</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>388</v>
       </c>
-      <c r="F107" t="s">
-        <v>664</v>
-      </c>
-      <c r="G107" t="s">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>389</v>
       </c>
-      <c r="H107" t="s">
+      <c r="B108" t="s">
+        <v>573</v>
+      </c>
+      <c r="C108" t="s">
+        <v>764</v>
+      </c>
+      <c r="D108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
         <v>391</v>
       </c>
-      <c r="B108" t="s">
-        <v>557</v>
-      </c>
       <c r="F108" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="G108" t="s">
         <v>392</v>
@@ -4971,7 +5301,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>394</v>
       </c>
@@ -4979,7 +5309,7 @@
         <v>565</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>765</v>
       </c>
       <c r="D109" t="s">
         <v>395</v>
@@ -4988,7 +5318,7 @@
         <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G109" t="s">
         <v>397</v>
@@ -4997,41 +5327,41 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>399</v>
       </c>
       <c r="B110" t="s">
-        <v>557</v>
-      </c>
-      <c r="C110" t="s">
+        <v>565</v>
+      </c>
+      <c r="F110" t="s">
+        <v>672</v>
+      </c>
+      <c r="G110" t="s">
         <v>400</v>
       </c>
-      <c r="D110" t="s">
-        <v>400</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>401</v>
       </c>
-      <c r="F110" t="s">
-        <v>667</v>
-      </c>
-      <c r="G110" t="s">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>402</v>
       </c>
-      <c r="H110" t="s">
+      <c r="B111" t="s">
+        <v>573</v>
+      </c>
+      <c r="C111" t="s">
+        <v>766</v>
+      </c>
+      <c r="D111" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="E111" t="s">
         <v>404</v>
       </c>
-      <c r="B111" t="s">
-        <v>557</v>
-      </c>
       <c r="F111" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="G111" t="s">
         <v>405</v>
@@ -5040,7 +5370,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>407</v>
       </c>
@@ -5048,7 +5378,7 @@
         <v>565</v>
       </c>
       <c r="C112" t="s">
-        <v>408</v>
+        <v>767</v>
       </c>
       <c r="D112" t="s">
         <v>408</v>
@@ -5057,7 +5387,7 @@
         <v>409</v>
       </c>
       <c r="F112" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G112" t="s">
         <v>410</v>
@@ -5066,41 +5396,41 @@
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
       <c r="B113" t="s">
-        <v>580</v>
-      </c>
-      <c r="C113" t="s">
+        <v>565</v>
+      </c>
+      <c r="F113" t="s">
+        <v>675</v>
+      </c>
+      <c r="G113" t="s">
         <v>413</v>
       </c>
-      <c r="D113" t="s">
-        <v>413</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>414</v>
       </c>
-      <c r="F113" t="s">
-        <v>670</v>
-      </c>
-      <c r="G113" t="s">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>415</v>
       </c>
-      <c r="H113" t="s">
+      <c r="B114" t="s">
+        <v>573</v>
+      </c>
+      <c r="C114" t="s">
+        <v>768</v>
+      </c>
+      <c r="D114" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="E114" t="s">
         <v>417</v>
       </c>
-      <c r="B114" t="s">
-        <v>581</v>
-      </c>
       <c r="F114" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G114" t="s">
         <v>418</v>
@@ -5109,15 +5439,15 @@
         <v>419</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>420</v>
       </c>
       <c r="B115" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>769</v>
       </c>
       <c r="D115" t="s">
         <v>421</v>
@@ -5126,7 +5456,7 @@
         <v>422</v>
       </c>
       <c r="F115" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G115" t="s">
         <v>423</v>
@@ -5135,716 +5465,753 @@
         <v>424</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>425</v>
       </c>
       <c r="B116" t="s">
-        <v>565</v>
-      </c>
-      <c r="C116" t="s">
+        <v>589</v>
+      </c>
+      <c r="F116" t="s">
+        <v>678</v>
+      </c>
+      <c r="G116" t="s">
         <v>426</v>
       </c>
-      <c r="D116" t="s">
-        <v>426</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>427</v>
       </c>
-      <c r="F116" t="s">
-        <v>673</v>
-      </c>
-      <c r="G116" t="s">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>428</v>
       </c>
-      <c r="H116" t="s">
+      <c r="B117" t="s">
+        <v>573</v>
+      </c>
+      <c r="C117" t="s">
+        <v>770</v>
+      </c>
+      <c r="D117" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="E117" t="s">
         <v>430</v>
       </c>
-      <c r="B117" t="s">
-        <v>582</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="F117" t="s">
+        <v>679</v>
+      </c>
+      <c r="G117" t="s">
         <v>431</v>
       </c>
-      <c r="D117" t="s">
-        <v>431</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>432</v>
       </c>
-      <c r="F117" t="s">
-        <v>674</v>
-      </c>
-      <c r="G117" t="s">
+    </row>
+    <row r="118" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>433</v>
       </c>
-      <c r="H117" t="s">
+      <c r="B118" t="s">
+        <v>573</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="E118" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B118" t="s">
-        <v>565</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
+        <v>680</v>
+      </c>
+      <c r="G118" t="s">
         <v>436</v>
       </c>
-      <c r="D118" t="s">
-        <v>436</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>437</v>
       </c>
-      <c r="F118" t="s">
-        <v>675</v>
-      </c>
-      <c r="G118" t="s">
+    </row>
+    <row r="119" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>438</v>
       </c>
-      <c r="H118" t="s">
+      <c r="B119" t="s">
+        <v>590</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="E119" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B119" t="s">
-        <v>565</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
+        <v>681</v>
+      </c>
+      <c r="G119" t="s">
         <v>441</v>
       </c>
-      <c r="D119" t="s">
-        <v>441</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>442</v>
       </c>
-      <c r="F119" t="s">
-        <v>676</v>
-      </c>
-      <c r="G119" t="s">
+    </row>
+    <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>443</v>
       </c>
-      <c r="H119" t="s">
+      <c r="B120" t="s">
+        <v>573</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="E120" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B120" t="s">
-        <v>583</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
+        <v>682</v>
+      </c>
+      <c r="G120" t="s">
         <v>446</v>
       </c>
-      <c r="D120" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>447</v>
       </c>
-      <c r="F120" t="s">
-        <v>677</v>
-      </c>
-      <c r="G120" t="s">
+    </row>
+    <row r="121" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>448</v>
       </c>
-      <c r="H120" t="s">
+      <c r="B121" t="s">
+        <v>573</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="E121" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B121" t="s">
-        <v>584</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="F121" t="s">
+        <v>683</v>
+      </c>
+      <c r="G121" t="s">
         <v>451</v>
       </c>
-      <c r="D121" t="s">
-        <v>451</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>452</v>
       </c>
-      <c r="F121" t="s">
-        <v>678</v>
-      </c>
-      <c r="G121" t="s">
+    </row>
+    <row r="122" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>453</v>
       </c>
-      <c r="H121" t="s">
+      <c r="B122" t="s">
+        <v>591</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="E122" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B122" t="s">
-        <v>565</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
+        <v>684</v>
+      </c>
+      <c r="G122" t="s">
         <v>456</v>
       </c>
-      <c r="D122" t="s">
-        <v>456</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="H122" t="s">
         <v>457</v>
       </c>
-      <c r="F122" t="s">
-        <v>679</v>
-      </c>
-      <c r="G122" t="s">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>458</v>
       </c>
-      <c r="H122" t="s">
+      <c r="B123" t="s">
+        <v>592</v>
+      </c>
+      <c r="C123" t="s">
+        <v>776</v>
+      </c>
+      <c r="D123" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="E123" t="s">
         <v>460</v>
       </c>
-      <c r="B123" t="s">
-        <v>565</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="F123" t="s">
+        <v>685</v>
+      </c>
+      <c r="G123" t="s">
         <v>461</v>
       </c>
-      <c r="D123" t="s">
-        <v>461</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="H123" t="s">
         <v>462</v>
       </c>
-      <c r="F123" t="s">
-        <v>680</v>
-      </c>
-      <c r="G123" t="s">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>463</v>
       </c>
-      <c r="H123" t="s">
+      <c r="B124" t="s">
+        <v>573</v>
+      </c>
+      <c r="C124" t="s">
+        <v>777</v>
+      </c>
+      <c r="D124" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="E124" t="s">
         <v>465</v>
       </c>
-      <c r="B124" t="s">
-        <v>565</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="F124" t="s">
+        <v>686</v>
+      </c>
+      <c r="G124" t="s">
         <v>466</v>
       </c>
-      <c r="D124" t="s">
-        <v>466</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>467</v>
       </c>
-      <c r="F124" t="s">
-        <v>681</v>
-      </c>
-      <c r="G124" t="s">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>468</v>
       </c>
-      <c r="H124" t="s">
+      <c r="B125" t="s">
+        <v>573</v>
+      </c>
+      <c r="C125" t="s">
+        <v>778</v>
+      </c>
+      <c r="D125" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="E125" t="s">
         <v>470</v>
       </c>
-      <c r="B125" t="s">
-        <v>565</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="F125" t="s">
+        <v>687</v>
+      </c>
+      <c r="G125" t="s">
         <v>471</v>
       </c>
-      <c r="D125" t="s">
-        <v>471</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>472</v>
       </c>
-      <c r="F125" t="s">
-        <v>682</v>
-      </c>
-      <c r="G125" t="s">
+    </row>
+    <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>473</v>
       </c>
-      <c r="H125" t="s">
+      <c r="B126" t="s">
+        <v>573</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="E126" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B126" t="s">
-        <v>568</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="F126" t="s">
+        <v>688</v>
+      </c>
+      <c r="G126" t="s">
         <v>476</v>
       </c>
-      <c r="D126" t="s">
-        <v>476</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>477</v>
       </c>
-      <c r="F126" t="s">
-        <v>683</v>
-      </c>
-      <c r="G126" t="s">
+    </row>
+    <row r="127" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>478</v>
       </c>
-      <c r="H126" t="s">
+      <c r="B127" t="s">
+        <v>573</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="E127" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B127" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="F127" t="s">
+        <v>689</v>
+      </c>
+      <c r="G127" t="s">
         <v>481</v>
       </c>
-      <c r="D127" t="s">
-        <v>481</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>482</v>
       </c>
-      <c r="F127" t="s">
-        <v>684</v>
-      </c>
-      <c r="G127" t="s">
+    </row>
+    <row r="128" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>483</v>
       </c>
-      <c r="H127" t="s">
+      <c r="B128" t="s">
+        <v>576</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="E128" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B128" t="s">
-        <v>565</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="F128" t="s">
+        <v>690</v>
+      </c>
+      <c r="G128" t="s">
         <v>486</v>
       </c>
-      <c r="D128" t="s">
-        <v>486</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>487</v>
       </c>
-      <c r="F128" t="s">
-        <v>685</v>
-      </c>
-      <c r="G128" t="s">
+    </row>
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>488</v>
       </c>
-      <c r="H128" t="s">
+      <c r="B129" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="E129" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B129" t="s">
-        <v>565</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="F129" t="s">
+        <v>691</v>
+      </c>
+      <c r="G129" t="s">
         <v>491</v>
       </c>
-      <c r="D129" t="s">
-        <v>491</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>492</v>
       </c>
-      <c r="F129" t="s">
-        <v>686</v>
-      </c>
-      <c r="G129" t="s">
+    </row>
+    <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>493</v>
       </c>
-      <c r="H129" t="s">
+      <c r="B130" t="s">
+        <v>573</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="E130" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B130" t="s">
-        <v>565</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="F130" t="s">
+        <v>692</v>
+      </c>
+      <c r="G130" t="s">
         <v>496</v>
       </c>
-      <c r="D130" t="s">
-        <v>496</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>497</v>
       </c>
-      <c r="F130" t="s">
-        <v>687</v>
-      </c>
-      <c r="G130" t="s">
+    </row>
+    <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>498</v>
       </c>
-      <c r="H130" t="s">
+      <c r="B131" t="s">
+        <v>573</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="E131" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B131" t="s">
-        <v>565</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
+        <v>693</v>
+      </c>
+      <c r="G131" t="s">
         <v>501</v>
       </c>
-      <c r="D131" t="s">
-        <v>501</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="H131" t="s">
         <v>502</v>
       </c>
-      <c r="F131" t="s">
-        <v>688</v>
-      </c>
-      <c r="G131" t="s">
+    </row>
+    <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>503</v>
       </c>
-      <c r="H131" t="s">
+      <c r="B132" t="s">
+        <v>573</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="E132" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B132" t="s">
-        <v>565</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="F132" t="s">
+        <v>694</v>
+      </c>
+      <c r="G132" t="s">
         <v>506</v>
       </c>
-      <c r="D132" t="s">
-        <v>506</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="H132" t="s">
         <v>507</v>
       </c>
-      <c r="F132" t="s">
-        <v>689</v>
-      </c>
-      <c r="G132" t="s">
+    </row>
+    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>508</v>
       </c>
-      <c r="H132" t="s">
+      <c r="B133" t="s">
+        <v>573</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="E133" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B133" t="s">
-        <v>565</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
+        <v>695</v>
+      </c>
+      <c r="G133" t="s">
         <v>511</v>
       </c>
-      <c r="D133" t="s">
-        <v>511</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="H133" t="s">
         <v>512</v>
       </c>
-      <c r="F133" t="s">
-        <v>690</v>
-      </c>
-      <c r="G133" t="s">
+    </row>
+    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>513</v>
       </c>
-      <c r="H133" t="s">
+      <c r="B134" t="s">
+        <v>573</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="E134" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B134" t="s">
-        <v>565</v>
-      </c>
-      <c r="C134" t="s">
-        <v>511</v>
-      </c>
-      <c r="D134" t="s">
-        <v>511</v>
-      </c>
-      <c r="E134" t="s">
-        <v>512</v>
-      </c>
       <c r="F134" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G134" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H134" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B135" t="s">
-        <v>565</v>
-      </c>
-      <c r="C135" t="s">
-        <v>518</v>
-      </c>
-      <c r="D135" t="s">
-        <v>518</v>
-      </c>
-      <c r="E135" t="s">
+        <v>573</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E135" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="F135" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G135" t="s">
+        <v>521</v>
+      </c>
+      <c r="H135" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" t="s">
+        <v>573</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H135" t="s">
+      <c r="F136" t="s">
+        <v>698</v>
+      </c>
+      <c r="G136" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>522</v>
-      </c>
-      <c r="B136" t="s">
-        <v>565</v>
-      </c>
-      <c r="C136" t="s">
-        <v>523</v>
-      </c>
-      <c r="D136" t="s">
-        <v>523</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="H136" t="s">
         <v>524</v>
       </c>
-      <c r="F136" t="s">
-        <v>693</v>
-      </c>
-      <c r="G136" t="s">
+    </row>
+    <row r="137" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>525</v>
       </c>
-      <c r="H136" t="s">
+      <c r="B137" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="E137" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B137" t="s">
-        <v>565</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="F137" t="s">
+        <v>699</v>
+      </c>
+      <c r="G137" t="s">
         <v>528</v>
       </c>
-      <c r="D137" t="s">
-        <v>528</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="H137" t="s">
         <v>529</v>
       </c>
-      <c r="F137" t="s">
-        <v>694</v>
-      </c>
-      <c r="G137" t="s">
+    </row>
+    <row r="138" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>530</v>
       </c>
-      <c r="H137" t="s">
+      <c r="B138" t="s">
+        <v>573</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="E138" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B138" t="s">
-        <v>565</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="F138" t="s">
+        <v>700</v>
+      </c>
+      <c r="G138" t="s">
         <v>533</v>
       </c>
-      <c r="D138" t="s">
-        <v>533</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="H138" t="s">
         <v>534</v>
       </c>
-      <c r="F138" t="s">
-        <v>695</v>
-      </c>
-      <c r="G138" t="s">
+    </row>
+    <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>535</v>
       </c>
-      <c r="H138" t="s">
+      <c r="B139" t="s">
+        <v>573</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="E139" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B139" t="s">
-        <v>565</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="F139" t="s">
+        <v>701</v>
+      </c>
+      <c r="G139" t="s">
         <v>538</v>
       </c>
-      <c r="D139" t="s">
-        <v>538</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="H139" t="s">
         <v>539</v>
       </c>
-      <c r="F139" t="s">
-        <v>696</v>
-      </c>
-      <c r="G139" t="s">
+    </row>
+    <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>540</v>
       </c>
-      <c r="H139" t="s">
+      <c r="B140" t="s">
+        <v>573</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="E140" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B140" t="s">
-        <v>585</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="F140" t="s">
+        <v>702</v>
+      </c>
+      <c r="G140" t="s">
         <v>543</v>
       </c>
-      <c r="D140" t="s">
-        <v>543</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="H140" t="s">
         <v>544</v>
       </c>
-      <c r="F140" t="s">
-        <v>697</v>
-      </c>
-      <c r="G140" t="s">
+    </row>
+    <row r="141" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>545</v>
       </c>
-      <c r="H140" t="s">
+      <c r="B141" t="s">
+        <v>573</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="E141" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B141" t="s">
-        <v>586</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="F141" t="s">
+        <v>703</v>
+      </c>
+      <c r="G141" t="s">
         <v>548</v>
       </c>
-      <c r="D141" t="s">
-        <v>548</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="H141" t="s">
         <v>549</v>
       </c>
-      <c r="F141" t="s">
-        <v>698</v>
-      </c>
-      <c r="G141" t="s">
+    </row>
+    <row r="142" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>550</v>
       </c>
-      <c r="H141" t="s">
+      <c r="B142" t="s">
+        <v>593</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="E142" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B142" t="s">
-        <v>587</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="F142" t="s">
+        <v>704</v>
+      </c>
+      <c r="G142" t="s">
         <v>553</v>
       </c>
-      <c r="D142" t="s">
-        <v>553</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>554</v>
       </c>
-      <c r="F142" t="s">
-        <v>699</v>
-      </c>
-      <c r="G142" t="s">
+    </row>
+    <row r="143" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>555</v>
       </c>
-      <c r="H142" t="s">
+      <c r="B143" t="s">
+        <v>594</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>556</v>
       </c>
+      <c r="E143" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F143" t="s">
+        <v>705</v>
+      </c>
+      <c r="G143" t="s">
+        <v>558</v>
+      </c>
+      <c r="H143" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>560</v>
+      </c>
+      <c r="B144" t="s">
+        <v>595</v>
+      </c>
+      <c r="C144" t="s">
+        <v>796</v>
+      </c>
+      <c r="D144" t="s">
+        <v>561</v>
+      </c>
+      <c r="E144" t="s">
+        <v>562</v>
+      </c>
+      <c r="F144" t="s">
+        <v>706</v>
+      </c>
+      <c r="G144" t="s">
+        <v>563</v>
+      </c>
+      <c r="H144" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N142" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EA 23.213"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:N144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>